--- a/outputs/ML_Results/dist_commute/Potsdam.xlsx
+++ b/outputs/ML_Results/dist_commute/Potsdam.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ55289454" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ55523721" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ55793095" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ56075626" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ56357721" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ56608098" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ56895192" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ57139418" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ57386452" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ30569822" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ30800917" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ31067981" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ31332698" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ31577454" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ31866557" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ32137466" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ32498157" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ32748135" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,7 +501,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -745,7 +745,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -989,7 +989,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1233,7 +1233,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1477,7 +1477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1721,7 +1721,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1965,7 +1965,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2209,7 +2209,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2453,7 +2453,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/outputs/ML_Results/dist_commute/Potsdam.xlsx
+++ b/outputs/ML_Results/dist_commute/Potsdam.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ30569822" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ30800917" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ31067981" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ31332698" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ31577454" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ31866557" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ32137466" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ32498157" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ32748135" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ01789717" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ01954131" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ02134304" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ02308327" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ02485862" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ02662891" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ02841397" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ03015428" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ03194531" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26366.92349049414</v>
+        <v>21501.73693926555</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004354587435176943</v>
+        <v>0.01860046938201982</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1548.04007270295</v>
+        <v>-1782.444445488517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6289606817417863</v>
+        <v>0.5776362076417667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2028.430450480146</v>
+        <v>101.4712726451104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5296308361131511</v>
+        <v>0.9675037716129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1599.071113505911</v>
+        <v>-649.4116081094878</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7273709081620832</v>
+        <v>0.5422365369856761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>262.3154768802412</v>
+        <v>-815.5246198103707</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4890312921264901</v>
+        <v>0.471623759357223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2356.784372991533</v>
+        <v>-2140.762217590667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005398381816122805</v>
+        <v>0.08072428041683391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.37125299284295</v>
+        <v>814.0151741557045</v>
       </c>
       <c r="C8" t="n">
-        <v>0.677786492072925</v>
+        <v>0.4768604514183029</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1704.104393227186</v>
+        <v>195.4039126595556</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04954537696471153</v>
+        <v>0.6066245042871363</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2094.777259699208</v>
+        <v>-2441.516642609023</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000591360592222363</v>
+        <v>0.003854217879568181</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.353387325302962</v>
+        <v>10.76976749108193</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0196834121760118</v>
+        <v>0.7838897595307674</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.004293584907317239</v>
+        <v>-1612.068105704547</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08165135381829539</v>
+        <v>0.05969565469713611</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-93.96489206188065</v>
+        <v>2052.268190863541</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3665516921122811</v>
+        <v>0.0007563142063776482</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-78.74936391068829</v>
+        <v>-3.330034256063763</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1664479191353867</v>
+        <v>0.02051354294383651</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-14602.95985470339</v>
+        <v>0.004498801795775582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001423769305641208</v>
+        <v>0.06831093200317298</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1222.729827976317</v>
+        <v>-63.44782535198168</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6972655548799922</v>
+        <v>0.5481898750568488</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-70.44815529743545</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2137818734084954</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-16060.90255641834</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0004478998649208896</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-2838.783916686257</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.362897341728747</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>40062.27165733901</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.534757593149473e-07</v>
+      <c r="B20" t="n">
+        <v>39846.6681302272</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7.48019166969256e-07</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +749,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31134.28548840355</v>
+        <v>28193.0549312604</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009602481833006106</v>
+        <v>0.002648254416838039</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-14.38526750197161</v>
+        <v>-1211.736729111826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9964151673158732</v>
+        <v>0.7151875805515631</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.99497377683565</v>
+        <v>-1502.046421008218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9819951485360153</v>
+        <v>0.5351299252692712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1197.864792780544</v>
+        <v>-108.8998269700057</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7887908057141276</v>
+        <v>0.9214625912847869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757.4622202713393</v>
+        <v>156.0715807573648</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05626499912905793</v>
+        <v>0.8933708779373897</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2012.591199656587</v>
+        <v>-2118.032367975116</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02048590093410805</v>
+        <v>0.09613406434427635</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.007826340819953</v>
+        <v>-68.37910664080118</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9408527957346601</v>
+        <v>0.9540250604873958</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1512.12942598267</v>
+        <v>708.6578367686808</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09210794710634355</v>
+        <v>0.07379567547560283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1986.298577351875</v>
+        <v>-1990.974615508563</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001534194965776183</v>
+        <v>0.02181202236246289</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.676926352237518</v>
+        <v>1.727079822069374</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07536009213794712</v>
+        <v>0.9659152174567276</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.003238315519550068</v>
+        <v>-1343.90837453091</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2121306367965432</v>
+        <v>0.1304387093695698</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-211.882843534753</v>
+        <v>1894.212910822303</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04830768458823741</v>
+        <v>0.002577446134785598</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-116.5655358826088</v>
+        <v>-2.449077359572677</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04543356186456902</v>
+        <v>0.1040693250770414</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8771.231580026575</v>
+        <v>0.002989018874148004</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05997774190391355</v>
+        <v>0.2505075794497265</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2321.183984513625</v>
+        <v>-190.1941263417202</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4674866123882429</v>
+        <v>0.08174706669465209</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-108.7120182542146</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.06128711443965113</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-9787.581647633213</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.03711833816281915</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1280.852765552313</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6901346775153581</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>32665.09072069654</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7.391010552263864e-05</v>
+      <c r="B20" t="n">
+        <v>32788.31518431174</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.648155060319599e-05</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1032,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21649.78800763131</v>
+        <v>16415.27056744246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02182809317241974</v>
+        <v>0.07446508073707941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2385.147235450345</v>
+        <v>-1770.667758738701</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4954636519038529</v>
+        <v>0.5981991483439425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2092.431472036577</v>
+        <v>-1294.485125989112</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5507150150285747</v>
+        <v>0.5664704740172533</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3816.260454346093</v>
+        <v>-62.0595873491759</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4203392089303374</v>
+        <v>0.9552862850280865</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95.52118073220521</v>
+        <v>798.9394090731191</v>
       </c>
       <c r="C6" t="n">
-        <v>0.805037689989915</v>
+        <v>0.4865892987272188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2198.975034109041</v>
+        <v>-1790.600922892183</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01062731732489209</v>
+        <v>0.1464538086570554</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.621851598916074</v>
+        <v>960.4598164488228</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8080393052244363</v>
+        <v>0.4093079571588665</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1360.496269418204</v>
+        <v>50.04653672040661</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1208930346304275</v>
+        <v>0.8970971489723418</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1464.268539965286</v>
+        <v>-2223.05297493302</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0177395723311524</v>
+        <v>0.009241261204694814</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.814474712394855</v>
+        <v>-13.78407676121046</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2056724171532014</v>
+        <v>0.7276162644333233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002159832389080951</v>
+        <v>-1158.69468085923</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3767350791424403</v>
+        <v>0.1811249104149475</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-69.38591132465594</v>
+        <v>1415.378896759576</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5098253002915347</v>
+        <v>0.02189339386734161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-27.72720934495017</v>
+        <v>-1.652106528489659</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6288619784739004</v>
+        <v>0.2489058710235506</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-11190.3098277831</v>
+        <v>0.002151483298030046</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01450955991830084</v>
+        <v>0.3778518593819761</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-656.1317409588023</v>
+        <v>-46.36123216576745</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8372151227401894</v>
+        <v>0.6624154747633961</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-24.90910147360084</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6616977284112284</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-13015.88324618144</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.004252341392479996</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-2510.369420764971</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4218391693733811</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>31516.53718139814</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8.218029765633689e-05</v>
+      <c r="B20" t="n">
+        <v>31747.07419491427</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7.563671228927149e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1315,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17665.66953006592</v>
+        <v>12347.58674112802</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06141496150586043</v>
+        <v>0.190483784325025</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-249.6604282730418</v>
+        <v>-2142.294723976269</v>
       </c>
       <c r="C3" t="n">
-        <v>0.934705698571007</v>
+        <v>0.5214163676233348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-735.9358764020183</v>
+        <v>-185.7953242912836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8108097152560626</v>
+        <v>0.9358851561022065</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2368.104986273818</v>
+        <v>-495.2997976522506</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5901708202717463</v>
+        <v>0.6494510398791087</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>241.8739528404655</v>
+        <v>519.1811280613089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5245433828112029</v>
+        <v>0.6498353664413632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2472.351291835398</v>
+        <v>-1545.641232512247</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004054779754287145</v>
+        <v>0.2116110235435981</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.245022432239427</v>
+        <v>1198.506569348704</v>
       </c>
       <c r="C8" t="n">
-        <v>0.81449729129408</v>
+        <v>0.3060729639979213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1244.621758255381</v>
+        <v>232.9985855208826</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1543016956832874</v>
+        <v>0.5393247324296802</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1523.490075379916</v>
+        <v>-2479.170741958468</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01726506498331312</v>
+        <v>0.00383605517386166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.115995385637269</v>
+        <v>11.2167272059373</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1411680680033854</v>
+        <v>0.7760884998444715</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002814093573035832</v>
+        <v>-1034.948668294408</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2522902923789269</v>
+        <v>0.2306853532150508</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-27.08904179013051</v>
+        <v>1390.775152986378</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7993796071532222</v>
+        <v>0.03014545818636354</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-28.2208008759826</v>
+        <v>-1.843401463150059</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6361314550551005</v>
+        <v>0.199672354238083</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-11516.9427587922</v>
+        <v>0.002573643697287498</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01011177123407499</v>
+        <v>0.2952952294746055</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1588.643067250543</v>
+        <v>7.164019178730847</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6105436960574512</v>
+        <v>0.9471571419205098</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-16.09545497582064</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7865162871733824</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-12987.59224290111</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.003816772846402008</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-3303.929993174074</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2905515047002137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>29835.59833449805</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0002074419086733672</v>
+      <c r="B20" t="n">
+        <v>29404.97857410063</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0002547967572618795</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1598,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23549.70483278978</v>
+        <v>20422.39772263609</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01448925482931081</v>
+        <v>0.03132509169119849</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1003.668787711796</v>
+        <v>-1467.460011601144</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7489822129693071</v>
+        <v>0.6617674983661537</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1214.655074193013</v>
+        <v>-577.8431677475704</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7018261196276745</v>
+        <v>0.7957485319398687</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-327.0312784694806</v>
+        <v>108.4664955802515</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9418990726582568</v>
+        <v>0.9190755501836341</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174.7594739250241</v>
+        <v>1446.277322267882</v>
       </c>
       <c r="C6" t="n">
-        <v>0.649221029950806</v>
+        <v>0.2069597232410154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2312.959304548193</v>
+        <v>-1928.385754437766</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006837403328214558</v>
+        <v>0.1214136666220526</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.97772097595294</v>
+        <v>1086.59645883962</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4923146104730416</v>
+        <v>0.3437525689702562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1483.851671180872</v>
+        <v>157.4250592330633</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08990848369932207</v>
+        <v>0.6806906290800487</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1710.891309976829</v>
+        <v>-2281.59206423536</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008171390012111064</v>
+        <v>0.007272451691476371</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.639724720390246</v>
+        <v>22.90376440799191</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06632521547192796</v>
+        <v>0.5726880042358244</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.003730267461428932</v>
+        <v>-1404.956593974634</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1285578114994683</v>
+        <v>0.1033841990629134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-136.4086459259498</v>
+        <v>1619.960497893524</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2014152308986775</v>
+        <v>0.01203847055711062</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-73.8392562966708</v>
+        <v>-2.526858602130108</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2135975404214854</v>
+        <v>0.07744277234610891</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10681.9168168608</v>
+        <v>0.003578785626753929</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01696043323730631</v>
+        <v>0.1432676141259269</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-43.39990074836328</v>
+        <v>-115.6359724261942</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9889748014448485</v>
+        <v>0.2827966705988929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-61.01096320204289</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3002040891055065</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-11913.08677918567</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.007587237664092345</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1216.038121339839</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6959385733982468</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>31687.36763152488</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9.306409413421135e-05</v>
+      <c r="B20" t="n">
+        <v>32064.70005791893</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7.099330528132952e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1881,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28481.54239681964</v>
+        <v>25202.44152059759</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003179870393116636</v>
+        <v>0.008125298128259115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>472.5624987687148</v>
+        <v>-3815.622224795973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8779408919921461</v>
+        <v>0.2437703467336701</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309.3741821725666</v>
+        <v>-1228.074690646468</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9207028004741354</v>
+        <v>0.5973766884493033</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2905.97714237346</v>
+        <v>-290.8348269171375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5056481539063192</v>
+        <v>0.7932423176652449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134.1446840143978</v>
+        <v>-223.822812702971</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7325638904802583</v>
+        <v>0.8462056809287359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2891.434660071387</v>
+        <v>-2404.253122847166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007996345357464352</v>
+        <v>0.05381774777060962</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.91026366929712</v>
+        <v>377.1402336471126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7510301363489886</v>
+        <v>0.7461348871392814</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1933.349335263781</v>
+        <v>-171.7188265712617</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03158087661086943</v>
+        <v>0.660941203957179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2142.220837334284</v>
+        <v>-2861.248478695804</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001087556068405173</v>
+        <v>0.0008796563505830318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.980465387734957</v>
+        <v>9.496764514616142</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008094075963435792</v>
+        <v>0.8143798219311544</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.006353895721868581</v>
+        <v>-1779.623703091499</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01429291150527098</v>
+        <v>0.04471574212328978</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-146.0730111979854</v>
+        <v>2044.0267429069</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1779619475129378</v>
+        <v>0.001828208131233482</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-98.40355927841098</v>
+        <v>-3.825697026660305</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1044458745454024</v>
+        <v>0.01064144521801741</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10494.43256505732</v>
+        <v>0.006327405863008105</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02024761758411793</v>
+        <v>0.01450947249732703</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1034.461172380866</v>
+        <v>-124.6164091758583</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7449410038013418</v>
+        <v>0.2533234344379506</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-91.15365274583206</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1291201989136198</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-11439.56007859649</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01131166081510856</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-41.03685508203989</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9896198259531619</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>34084.83182913927</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.517624064651003e-05</v>
+      <c r="B20" t="n">
+        <v>33890.13130356929</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.69390390114643e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2164,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25754.93119112081</v>
+        <v>21750.29299512728</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006342100025037579</v>
+        <v>0.01936463986931153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1366.214655232115</v>
+        <v>-4093.873669825469</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6870192883491469</v>
+        <v>0.2277393556059725</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1841.891068728619</v>
+        <v>15.24709862109125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5906422288011594</v>
+        <v>0.9948524864554152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-5532.092622317607</v>
+        <v>-434.7659999266089</v>
       </c>
       <c r="C5" t="n">
-        <v>0.241367511098867</v>
+        <v>0.6886674432131213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>320.5406059722482</v>
+        <v>-446.4354113174526</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4196217719793763</v>
+        <v>0.7034843985084294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2519.449127889741</v>
+        <v>-2441.259036501538</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003355831578021443</v>
+        <v>0.04954528383971837</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.54938400926485</v>
+        <v>-203.9221159138829</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6848751697812074</v>
+        <v>0.8607168778245228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1986.888340323483</v>
+        <v>241.0772160355612</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02720704875841429</v>
+        <v>0.5444600826840914</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1775.719341879692</v>
+        <v>-2574.505520656155</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004233013880410873</v>
+        <v>0.002806074181012669</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.009419778472652</v>
+        <v>-16.6241243515878</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0431490781511076</v>
+        <v>0.6824695085279243</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.003746574605495226</v>
+        <v>-1772.336115415324</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1435028073554698</v>
+        <v>0.04469509525378008</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-94.66274491312713</v>
+        <v>1698.2092601045</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3712077017613572</v>
+        <v>0.006300981995776138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-48.31229376746981</v>
+        <v>-2.764922682572044</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4050048471962515</v>
+        <v>0.06195781203428516</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-11258.57747061789</v>
+        <v>0.003654170433684853</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01406772562300659</v>
+        <v>0.1534910421762969</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.3504252281207</v>
+        <v>-79.41594229338489</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9647353873400007</v>
+        <v>0.45891372699517</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-46.87534000523055</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4162086481711726</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-12290.04911879495</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.007518082061454956</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1116.84509409877</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7243365422882422</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>33865.20623333313</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.92948068547476e-05</v>
+      <c r="B20" t="n">
+        <v>33416.90282436329</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.40061692771744e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2447,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25491.0717117301</v>
+        <v>22188.53452095432</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008004578404848996</v>
+        <v>0.01974659143170785</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-123.8473288014904</v>
+        <v>-994.2328223921954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9708373100461902</v>
+        <v>0.768597950512262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-967.8146807630189</v>
+        <v>-669.0669991843165</v>
       </c>
       <c r="C4" t="n">
-        <v>0.777744243666657</v>
+        <v>0.7679474538915689</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1296.40290850296</v>
+        <v>-904.4898269882267</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7803732311829725</v>
+        <v>0.4141007997099353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.9324536517795</v>
+        <v>-82.54585215003453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.897210121213002</v>
+        <v>0.9427910349870705</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2635.522355018724</v>
+        <v>-1391.670274306517</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002166379651311471</v>
+        <v>0.2648127684564764</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.32522575459376</v>
+        <v>256.4063014579351</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6692657607134579</v>
+        <v>0.8284183075510805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1598.34262803619</v>
+        <v>20.70953306908228</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06952545007107616</v>
+        <v>0.9581288387586018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1783.521503355804</v>
+        <v>-2614.880449044498</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005699791249223233</v>
+        <v>0.00240697731238653</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.529755132478112</v>
+        <v>-18.2280197728656</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08104295909235162</v>
+        <v>0.6530127271542401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002941991963775406</v>
+        <v>-1490.699838042512</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2321047363576428</v>
+        <v>0.08562251002313495</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-82.48873057825685</v>
+        <v>1742.377123377961</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4417898000313584</v>
+        <v>0.007034740341291484</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-56.51904877012078</v>
+        <v>-2.425268552317396</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3452554545596412</v>
+        <v>0.09335939659337852</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-13603.69627066058</v>
+        <v>0.002932073752380077</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002838053143224662</v>
+        <v>0.2344451171633641</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-961.533765146005</v>
+        <v>-67.17435463606945</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7597294629151143</v>
+        <v>0.5369571060276515</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-53.1338502734943</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3741266640726113</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-14565.87250304912</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.001492631141929971</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-2046.948419472989</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.51572138405031</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>37851.51751952883</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5.285751074701326e-06</v>
+      <c r="B20" t="n">
+        <v>37664.58459606653</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.593873271758539e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2730,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25936.66085344066</v>
+        <v>21572.69324471288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006497325284618604</v>
+        <v>0.02206701749515788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1600.720780330131</v>
+        <v>-1073.924204154065</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6267706357900169</v>
+        <v>0.756005482118886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1942.821212149022</v>
+        <v>-1510.411160848795</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5561664079044902</v>
+        <v>0.5420758640830412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3479.399633069068</v>
+        <v>-482.2125665217872</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4340111706261192</v>
+        <v>0.661895617929775</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>408.7797513906878</v>
+        <v>626.0288816609019</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3012323459461721</v>
+        <v>0.5929789579673778</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2355.941440016386</v>
+        <v>-2081.107671935808</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006933366699332429</v>
+        <v>0.09714092164187894</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.70045790623568</v>
+        <v>160.9907262193303</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7009019893227959</v>
+        <v>0.8913694125022401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1356.36057366064</v>
+        <v>335.5165073640874</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1303797302590094</v>
+        <v>0.3960724200492035</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1645.4627434236</v>
+        <v>-2397.672479846457</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009914836516174917</v>
+        <v>0.006123388902811844</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.77446009619</v>
+        <v>-17.38245493984035</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0637127227484847</v>
+        <v>0.6727096069597083</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.004109559524236275</v>
+        <v>-1188.631319099373</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1105138981882997</v>
+        <v>0.1814133932441304</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-110.7437544374527</v>
+        <v>1600.414785942034</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3038130255303449</v>
+        <v>0.01233925636718039</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-69.6951954844035</v>
+        <v>-2.681626860992484</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2386313360983533</v>
+        <v>0.07382497531291091</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8828.189955707732</v>
+        <v>0.004185716985844443</v>
       </c>
       <c r="C15" t="n">
-        <v>0.055680147078374</v>
+        <v>0.1043293728361734</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1254.200739361742</v>
+        <v>-92.47361637023457</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6968422161711045</v>
+        <v>0.3972064743213964</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-66.86675519124127</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2561960133102975</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-10403.15199927304</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.02388894724445143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-315.502505946847</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9211516023015545</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>29842.27134991971</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0002190436393627709</v>
+      <c r="B20" t="n">
+        <v>30126.65656719335</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0001993026177408534</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Potsdam.xlsx
+++ b/outputs/ML_Results/dist_commute/Potsdam.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ01789717" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ01954131" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ02134304" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ02308327" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ02485862" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ02662891" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ02841397" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ03015428" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ03194531" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ57582494" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ57747615" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ57936091" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ58144914" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ58351047" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ58555852" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ58775714" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ58995484" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ59223124" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21501.73693926555</v>
+        <v>48388.13892969086</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01860046938201982</v>
+        <v>6.412433492331186e-05</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1782.444445488517</v>
+        <v>-1782.444445500957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5776362076417667</v>
+        <v>0.5776362076417499</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.4712726451104</v>
+        <v>101.4712726556329</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9675037716129</v>
+        <v>0.9675037716095134</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-649.4116081094878</v>
+        <v>-649.411608053251</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5422365369856761</v>
+        <v>0.542236537013196</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-815.5246198103707</v>
+        <v>-815.5246198113955</v>
       </c>
       <c r="C6" t="n">
-        <v>0.471623759357223</v>
+        <v>0.4716237593566868</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2140.762217590667</v>
+        <v>-2140.762217596977</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08072428041683391</v>
+        <v>0.08072428041606737</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>814.0151741557045</v>
+        <v>814.0151741714287</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4768604514183029</v>
+        <v>0.4768604514103285</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>195.4039126595556</v>
+        <v>195.4039126612307</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6066245042871363</v>
+        <v>0.606624504283757</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2441.516642609023</v>
+        <v>-2441.516642622631</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003854217879568181</v>
+        <v>0.003854217879368381</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.76976749108193</v>
+        <v>10.76976749056942</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7838897595307674</v>
+        <v>0.7838897595415406</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1612.068105704547</v>
+        <v>4323.026048260081</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05969565469713611</v>
+        <v>0.002617696491034755</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2052.268190863541</v>
+        <v>1732.785920136671</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007563142063776482</v>
+        <v>0.00236258591536281</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.330034256063763</v>
+        <v>1.441305300643479</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02051354294383651</v>
+        <v>0.3477040507902734</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004498801795775582</v>
+        <v>0.006422180052392368</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06831093200317298</v>
+        <v>0.01266193632192325</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-63.44782535198168</v>
+        <v>-21.64009780032899</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5481898750568488</v>
+        <v>0.8372437085371004</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-70.44815529743545</v>
+        <v>-395.3649129977638</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2137818734084954</v>
+        <v>0.0001663580813489601</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-16060.90255641834</v>
+        <v>-75776.32883818587</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004478998649208896</v>
+        <v>2.007672561784062e-06</v>
       </c>
     </row>
     <row r="19">
@@ -687,23 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2838.783916686257</v>
+        <v>-24246.61043322687</v>
       </c>
       <c r="C19" t="n">
-        <v>0.362897341728747</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>39846.6681302272</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7.48019166969256e-07</v>
+        <v>6.837433183910342e-05</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28193.0549312604</v>
+        <v>50316.85759904094</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002648254416838039</v>
+        <v>4.804598563059044e-05</v>
       </c>
     </row>
     <row r="3">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1211.736729111826</v>
+        <v>-1211.73672912545</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7151875805515631</v>
+        <v>0.7151875805515385</v>
       </c>
     </row>
     <row r="4">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1502.046421008218</v>
+        <v>-1502.046420983823</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5351299252692712</v>
+        <v>0.5351299252748909</v>
       </c>
     </row>
     <row r="5">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-108.8998269700057</v>
+        <v>-108.89982693305</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9214625912847869</v>
+        <v>0.9214625913099055</v>
       </c>
     </row>
     <row r="6">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156.0715807573648</v>
+        <v>156.0715807275587</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8933708779373897</v>
+        <v>0.893370877957861</v>
       </c>
     </row>
     <row r="7">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2118.032367975116</v>
+        <v>-2118.032367995363</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09613406434427635</v>
+        <v>0.09613406434173076</v>
       </c>
     </row>
     <row r="8">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-68.37910664080118</v>
+        <v>-68.37910664530295</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9540250604873958</v>
+        <v>0.9540250604843431</v>
       </c>
     </row>
     <row r="9">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>708.6578367686808</v>
+        <v>708.6578367697207</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07379567547560283</v>
+        <v>0.07379567547494729</v>
       </c>
     </row>
     <row r="10">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1990.974615508563</v>
+        <v>-1990.974615509778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02181202236246289</v>
+        <v>0.02181202236237797</v>
       </c>
     </row>
     <row r="11">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.727079822069374</v>
+        <v>1.727079822047774</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9659152174567276</v>
+        <v>0.9659152174571624</v>
       </c>
     </row>
     <row r="12">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1343.90837453091</v>
+        <v>3539.85598778151</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1304387093695698</v>
+        <v>0.01620157647045108</v>
       </c>
     </row>
     <row r="13">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1894.212910822303</v>
+        <v>1631.323041177203</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002577446134785598</v>
+        <v>0.005580159591455415</v>
       </c>
     </row>
     <row r="14">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.449077359572677</v>
+        <v>1.47707738771382</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1040693250770414</v>
+        <v>0.3552601453995278</v>
       </c>
     </row>
     <row r="15">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002989018874148004</v>
+        <v>0.004571694049866487</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2505075794497265</v>
+        <v>0.09176379257836624</v>
       </c>
     </row>
     <row r="16">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-190.1941263417202</v>
+        <v>-155.7921295775583</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08174706669465209</v>
+        <v>0.1527624598268154</v>
       </c>
     </row>
     <row r="17">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-108.7120182542146</v>
+        <v>-376.0737215038982</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06128711443965113</v>
+        <v>0.0004479849980682893</v>
       </c>
     </row>
     <row r="18">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-9787.581647633213</v>
+        <v>-58925.14597036533</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03711833816281915</v>
+        <v>0.0002991308949822235</v>
       </c>
     </row>
     <row r="19">
@@ -970,23 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1280.852765552313</v>
+        <v>-16334.83748321832</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6901346775153581</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>32788.31518431174</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6.648155060319599e-05</v>
+        <v>0.008867191778369787</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16415.27056744246</v>
+        <v>37836.49946629736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07446508073707941</v>
+        <v>0.00187732867229612</v>
       </c>
     </row>
     <row r="3">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1770.667758738701</v>
+        <v>-1770.667758714737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5981991483439425</v>
+        <v>0.5981991483439294</v>
       </c>
     </row>
     <row r="4">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1294.485125989112</v>
+        <v>-1294.485126014617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5664704740172533</v>
+        <v>0.5664704740103742</v>
       </c>
     </row>
     <row r="5">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-62.0595873491759</v>
+        <v>-62.05958742261146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9552862850280865</v>
+        <v>0.9552862849762619</v>
       </c>
     </row>
     <row r="6">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>798.9394090731191</v>
+        <v>798.9394091189869</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4865892987272188</v>
+        <v>0.4865892987021568</v>
       </c>
     </row>
     <row r="7">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1790.600922892183</v>
+        <v>-1790.600922870314</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1464538086570554</v>
+        <v>0.1464538086616735</v>
       </c>
     </row>
     <row r="8">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>960.4598164488228</v>
+        <v>960.4598164721406</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4093079571588665</v>
+        <v>0.4093079571490915</v>
       </c>
     </row>
     <row r="9">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.04653672040661</v>
+        <v>50.04653672220843</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8970971489723418</v>
+        <v>0.8970971489685577</v>
       </c>
     </row>
     <row r="10">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2223.05297493302</v>
+        <v>-2223.052974924824</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009241261204694814</v>
+        <v>0.009241261205009553</v>
       </c>
     </row>
     <row r="11">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13.78407676121046</v>
+        <v>-13.78407676093567</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7276162644333233</v>
+        <v>0.727616264438152</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1158.69468085923</v>
+        <v>3569.978588568294</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1811249104149475</v>
+        <v>0.01309172811082776</v>
       </c>
     </row>
     <row r="13">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1415.378896759576</v>
+        <v>1160.837480077823</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02189339386734161</v>
+        <v>0.04456000732339827</v>
       </c>
     </row>
     <row r="14">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.652106528489659</v>
+        <v>2.149367422341297</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2489058710235506</v>
+        <v>0.1566944487742698</v>
       </c>
     </row>
     <row r="15">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002151483298030046</v>
+        <v>0.003683898304637008</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3778518593819761</v>
+        <v>0.1489340224945252</v>
       </c>
     </row>
     <row r="16">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-46.36123216576745</v>
+        <v>-13.05172121395294</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6624154747633961</v>
+        <v>0.9018707402573765</v>
       </c>
     </row>
     <row r="17">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-24.90910147360084</v>
+        <v>-283.7803421040505</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6616977284112284</v>
+        <v>0.00692676870450533</v>
       </c>
     </row>
     <row r="18">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-13015.88324618144</v>
+        <v>-60593.01221857138</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004252341392479996</v>
+        <v>0.0001335005483905578</v>
       </c>
     </row>
     <row r="19">
@@ -1253,23 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2510.369420764971</v>
+        <v>-19566.64761554763</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4218391693733811</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>31747.07419491427</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7.563671228927149e-05</v>
+        <v>0.001233325132557768</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12347.58674112802</v>
+        <v>32188.49469067392</v>
       </c>
       <c r="C2" t="n">
-        <v>0.190483784325025</v>
+        <v>0.01008119558870854</v>
       </c>
     </row>
     <row r="3">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2142.294723976269</v>
+        <v>-2142.294723981294</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5214163676233348</v>
+        <v>0.5214163676233274</v>
       </c>
     </row>
     <row r="4">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-185.7953242912836</v>
+        <v>-185.7953243495963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9358851561022065</v>
+        <v>0.9358851560823436</v>
       </c>
     </row>
     <row r="5">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-495.2997976522506</v>
+        <v>-495.2997976728053</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6494510398791087</v>
+        <v>0.6494510398671758</v>
       </c>
     </row>
     <row r="6">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>519.1811280613089</v>
+        <v>519.1811280463722</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6498353664413632</v>
+        <v>0.6498353664508388</v>
       </c>
     </row>
     <row r="7">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1545.641232512247</v>
+        <v>-1545.641232499398</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2116110235435981</v>
+        <v>0.2116110235472322</v>
       </c>
     </row>
     <row r="8">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1198.506569348704</v>
+        <v>1198.506569353119</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3060729639979213</v>
+        <v>0.3060729639963438</v>
       </c>
     </row>
     <row r="9">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.9985855208826</v>
+        <v>232.9985855238829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5393247324296802</v>
+        <v>0.5393247324239192</v>
       </c>
     </row>
     <row r="10">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2479.170741958468</v>
+        <v>-2479.170741966613</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00383605517386166</v>
+        <v>0.003836055173748384</v>
       </c>
     </row>
     <row r="11">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.2167272059373</v>
+        <v>11.21672720592553</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7760884998444715</v>
+        <v>0.7760884998447114</v>
       </c>
     </row>
     <row r="12">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1034.948668294408</v>
+        <v>3344.873400287221</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2306853532150508</v>
+        <v>0.02088195533823041</v>
       </c>
     </row>
     <row r="13">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1390.775152986378</v>
+        <v>1155.012170316975</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03014545818636354</v>
+        <v>0.0549457679494846</v>
       </c>
     </row>
     <row r="14">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.843401463150059</v>
+        <v>1.677624108791005</v>
       </c>
       <c r="C14" t="n">
-        <v>0.199672354238083</v>
+        <v>0.2733335097750446</v>
       </c>
     </row>
     <row r="15">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002573643697287498</v>
+        <v>0.003993006947792952</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2952952294746055</v>
+        <v>0.1200933401285107</v>
       </c>
     </row>
     <row r="16">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.164019178730847</v>
+        <v>38.01616794228928</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9471571419205098</v>
+        <v>0.7233554499810744</v>
       </c>
     </row>
     <row r="17">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-16.09545497582064</v>
+        <v>-255.8688349562393</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7865162871733824</v>
+        <v>0.01831268505915484</v>
       </c>
     </row>
     <row r="18">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-12987.59224290111</v>
+        <v>-57054.78563082097</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003816772846402008</v>
+        <v>0.0003021808086707618</v>
       </c>
     </row>
     <row r="19">
@@ -1536,23 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3303.929993174074</v>
+        <v>-19101.90532147272</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2905515047002137</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>29404.97857410063</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0002547967572618795</v>
+        <v>0.001398760962318482</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20422.39772263609</v>
+        <v>42057.94357750154</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03132509169119849</v>
+        <v>0.0008710999358059945</v>
       </c>
     </row>
     <row r="3">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1467.460011601144</v>
+        <v>-1467.460011621122</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6617674983661537</v>
+        <v>0.6617674983661634</v>
       </c>
     </row>
     <row r="4">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-577.8431677475704</v>
+        <v>-577.8431677726256</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7957485319398687</v>
+        <v>0.7957485319316548</v>
       </c>
     </row>
     <row r="5">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>108.4664955802515</v>
+        <v>108.4664955565125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9190755501836341</v>
+        <v>0.9190755502020025</v>
       </c>
     </row>
     <row r="6">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1446.277322267882</v>
+        <v>1446.277322256145</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2069597232410154</v>
+        <v>0.2069597232449678</v>
       </c>
     </row>
     <row r="7">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1928.385754437766</v>
+        <v>-1928.385754427861</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1214136666220526</v>
+        <v>0.1214136666236153</v>
       </c>
     </row>
     <row r="8">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1086.59645883962</v>
+        <v>1086.596458857314</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3437525689702562</v>
+        <v>0.3437525689628075</v>
       </c>
     </row>
     <row r="9">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.4250592330633</v>
+        <v>157.4250592294269</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6806906290800487</v>
+        <v>0.680690629087813</v>
       </c>
     </row>
     <row r="10">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2281.59206423536</v>
+        <v>-2281.592064236926</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007272451691476371</v>
+        <v>0.007272451691427017</v>
       </c>
     </row>
     <row r="11">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.90376440799191</v>
+        <v>22.90376440807683</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5726880042358244</v>
+        <v>0.5726880042341083</v>
       </c>
     </row>
     <row r="12">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1404.956593974634</v>
+        <v>3371.026513061146</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1033841990629134</v>
+        <v>0.01957917289225794</v>
       </c>
     </row>
     <row r="13">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1619.960497893524</v>
+        <v>1362.872423375</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01203847055711062</v>
+        <v>0.02432286608885167</v>
       </c>
     </row>
     <row r="14">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.526858602130108</v>
+        <v>1.312648662613307</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07744277234610891</v>
+        <v>0.3933052648826918</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003578785626753929</v>
+        <v>0.00512653227135705</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1432676141259269</v>
+        <v>0.04440880957148555</v>
       </c>
     </row>
     <row r="16">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-115.6359724261942</v>
+        <v>-81.99320360931094</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2827966705988929</v>
+        <v>0.4427890778422953</v>
       </c>
     </row>
     <row r="17">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-61.01096320204289</v>
+        <v>-322.4721811233935</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3002040891055065</v>
+        <v>0.002983001393477098</v>
       </c>
     </row>
     <row r="18">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-11913.08677918567</v>
+        <v>-59966.21951039504</v>
       </c>
       <c r="C18" t="n">
-        <v>0.007587237664092345</v>
+        <v>0.0001478236350038382</v>
       </c>
     </row>
     <row r="19">
@@ -1819,23 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1216.038121339839</v>
+        <v>-18442.96243771159</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6959385733982468</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>32064.70005791893</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7.099330528132952e-05</v>
+        <v>0.001946233804303884</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25202.44152059759</v>
+        <v>48069.69081743185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008125298128259115</v>
+        <v>0.0001371435563180467</v>
       </c>
     </row>
     <row r="3">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3815.622224795973</v>
+        <v>-3815.622224748303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2437703467336701</v>
+        <v>0.2437703467336385</v>
       </c>
     </row>
     <row r="4">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1228.074690646468</v>
+        <v>-1228.074690560882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5973766884493033</v>
+        <v>0.5973766884738201</v>
       </c>
     </row>
     <row r="5">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-290.8348269171375</v>
+        <v>-290.8348267282621</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7932423176652449</v>
+        <v>0.793242317790733</v>
       </c>
     </row>
     <row r="6">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-223.822812702971</v>
+        <v>-223.8228127317807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8462056809287359</v>
+        <v>0.8462056809092249</v>
       </c>
     </row>
     <row r="7">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2404.253122847166</v>
+        <v>-2404.253122792813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05381774777060962</v>
+        <v>0.05381774777570738</v>
       </c>
     </row>
     <row r="8">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>377.1402336471126</v>
+        <v>377.1402336153218</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7461348871392814</v>
+        <v>0.7461348871595886</v>
       </c>
     </row>
     <row r="9">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-171.7188265712617</v>
+        <v>-171.7188265690496</v>
       </c>
       <c r="C9" t="n">
-        <v>0.660941203957179</v>
+        <v>0.6609412039611036</v>
       </c>
     </row>
     <row r="10">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2861.248478695804</v>
+        <v>-2861.2484786837</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008796563505830318</v>
+        <v>0.0008796563506282997</v>
       </c>
     </row>
     <row r="11">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.496764514616142</v>
+        <v>9.496764512877526</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8143798219311544</v>
+        <v>0.814379821965455</v>
       </c>
     </row>
     <row r="12">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1779.623703091499</v>
+        <v>3268.254316022788</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04471574212328978</v>
+        <v>0.02353495042904001</v>
       </c>
     </row>
     <row r="13">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2044.0267429069</v>
+        <v>1772.30274143566</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001828208131233482</v>
+        <v>0.003991586190005331</v>
       </c>
     </row>
     <row r="14">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.825697026660305</v>
+        <v>0.2323919347517034</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01064144521801741</v>
+        <v>0.8825846091265972</v>
       </c>
     </row>
     <row r="15">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006327405863008105</v>
+        <v>0.007963265138135986</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01450947249732703</v>
+        <v>0.003164246684863037</v>
       </c>
     </row>
     <row r="16">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-124.6164091758583</v>
+        <v>-89.0583702558865</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2533234344379506</v>
+        <v>0.4111751970131392</v>
       </c>
     </row>
     <row r="17">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-91.15365274583206</v>
+        <v>-367.4997589042393</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1291201989136198</v>
+        <v>0.0007504480227069818</v>
       </c>
     </row>
     <row r="18">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-11439.56007859649</v>
+        <v>-62228.33947984863</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01131166081510856</v>
+        <v>8.687050165374326e-05</v>
       </c>
     </row>
     <row r="19">
@@ -2102,23 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-41.03685508203989</v>
+        <v>-18248.68345657683</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9896198259531619</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>33890.13130356929</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.69390390114643e-05</v>
+        <v>0.002389234902092773</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21750.29299512728</v>
+        <v>44298.23300949324</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01936463986931153</v>
+        <v>0.0003010207632154263</v>
       </c>
     </row>
     <row r="3">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4093.873669825469</v>
+        <v>-4093.873669886423</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2277393556059725</v>
+        <v>0.2277393556059755</v>
       </c>
     </row>
     <row r="4">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.24709862109125</v>
+        <v>15.24709861160079</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9948524864554152</v>
+        <v>0.9948524864586208</v>
       </c>
     </row>
     <row r="5">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-434.7659999266089</v>
+        <v>-434.7660001072068</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6886674432131213</v>
+        <v>0.6886674430987304</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-446.4354113174526</v>
+        <v>-446.4354111775852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7034843985084294</v>
+        <v>0.7034843985964108</v>
       </c>
     </row>
     <row r="7">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2441.259036501538</v>
+        <v>-2441.259036403724</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04954528383971837</v>
+        <v>0.04954528384785459</v>
       </c>
     </row>
     <row r="8">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-203.9221159138829</v>
+        <v>-203.9221158479109</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8607168778245228</v>
+        <v>0.8607168778693697</v>
       </c>
     </row>
     <row r="9">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>241.0772160355612</v>
+        <v>241.077216035526</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5444600826840914</v>
+        <v>0.544460082684154</v>
       </c>
     </row>
     <row r="10">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2574.505520656155</v>
+        <v>-2574.505520660714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002806074181012669</v>
+        <v>0.002806074180964604</v>
       </c>
     </row>
     <row r="11">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-16.6241243515878</v>
+        <v>-16.62412435110581</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6824695085279243</v>
+        <v>0.6824695085361749</v>
       </c>
     </row>
     <row r="12">
@@ -2294,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1772.336115415324</v>
+        <v>3205.055317999837</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04469509525378008</v>
+        <v>0.02772723264659586</v>
       </c>
     </row>
     <row r="13">
@@ -2307,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1698.2092601045</v>
+        <v>1430.27950585836</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006300981995776138</v>
+        <v>0.01413299614047292</v>
       </c>
     </row>
     <row r="14">
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.764922682572044</v>
+        <v>1.236500718755062</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06195781203428516</v>
+        <v>0.4331064519354841</v>
       </c>
     </row>
     <row r="15">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003654170433684853</v>
+        <v>0.005267187212211479</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1534910421762969</v>
+        <v>0.04802737757586025</v>
       </c>
     </row>
     <row r="16">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-79.41594229338489</v>
+        <v>-44.35442186085369</v>
       </c>
       <c r="C16" t="n">
-        <v>0.45891372699517</v>
+        <v>0.6780992411612363</v>
       </c>
     </row>
     <row r="17">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-46.87534000523055</v>
+        <v>-319.362657703246</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4162086481711726</v>
+        <v>0.002538581294021046</v>
       </c>
     </row>
     <row r="18">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-12290.04911879495</v>
+        <v>-62369.6339579436</v>
       </c>
       <c r="C18" t="n">
-        <v>0.007518082061454956</v>
+        <v>9.290948365056726e-05</v>
       </c>
     </row>
     <row r="19">
@@ -2385,23 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1116.84509409877</v>
+        <v>-19070.2472711519</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7243365422882422</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>33416.90282436329</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3.40061692771744e-05</v>
+        <v>0.001796516212652147</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22188.53452095432</v>
+        <v>47602.58316829699</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01974659143170785</v>
+        <v>0.0001882666640801452</v>
       </c>
     </row>
     <row r="3">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-994.2328223921954</v>
+        <v>-994.2328223702136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.768597950512262</v>
+        <v>0.7685979505122461</v>
       </c>
     </row>
     <row r="4">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-669.0669991843165</v>
+        <v>-669.0669991753412</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7679474538915689</v>
+        <v>0.7679474538943087</v>
       </c>
     </row>
     <row r="5">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-904.4898269882267</v>
+        <v>-904.4898269580635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4141007997099353</v>
+        <v>0.4141007997167711</v>
       </c>
     </row>
     <row r="6">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82.54585215003453</v>
+        <v>-82.54585217494764</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9427910349870705</v>
+        <v>0.9427910349699218</v>
       </c>
     </row>
     <row r="7">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1391.670274306517</v>
+        <v>-1391.670274326466</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2648127684564764</v>
+        <v>0.2648127684507373</v>
       </c>
     </row>
     <row r="8">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>256.4063014579351</v>
+        <v>256.4063014301983</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8284183075510805</v>
+        <v>0.8284183075690252</v>
       </c>
     </row>
     <row r="9">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.70953306908228</v>
+        <v>20.70953306849981</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9581288387586018</v>
+        <v>0.9581288387598003</v>
       </c>
     </row>
     <row r="10">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2614.880449044498</v>
+        <v>-2614.880449043933</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00240697731238653</v>
+        <v>0.002406977312391701</v>
       </c>
     </row>
     <row r="11">
@@ -2564,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.2280197728656</v>
+        <v>-18.22801977334882</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6530127271542401</v>
+        <v>0.6530127271475457</v>
       </c>
     </row>
     <row r="12">
@@ -2577,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1490.699838042512</v>
+        <v>4119.376646096944</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08562251002313495</v>
+        <v>0.005045474849311964</v>
       </c>
     </row>
     <row r="13">
@@ -2590,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1742.377123377961</v>
+        <v>1440.390343072864</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007034740341291484</v>
+        <v>0.01734170963960689</v>
       </c>
     </row>
     <row r="14">
@@ -2603,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.425268552317396</v>
+        <v>2.084782872470002</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09335939659337852</v>
+        <v>0.1784377271879789</v>
       </c>
     </row>
     <row r="15">
@@ -2616,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002932073752380077</v>
+        <v>0.004750123954651946</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2344451171633641</v>
+        <v>0.06543243144017356</v>
       </c>
     </row>
     <row r="16">
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-67.17435463606945</v>
+        <v>-27.65610216965975</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5369571060276515</v>
+        <v>0.7980508229437142</v>
       </c>
     </row>
     <row r="17">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-53.1338502734943</v>
+        <v>-360.2575140907234</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3741266640726113</v>
+        <v>0.00109234307792483</v>
       </c>
     </row>
     <row r="18">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-14565.87250304912</v>
+        <v>-71011.16217023801</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001492631141929971</v>
+        <v>1.283638956198221e-05</v>
       </c>
     </row>
     <row r="19">
@@ -2668,23 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2046.948419472989</v>
+        <v>-22282.43938217441</v>
       </c>
       <c r="C19" t="n">
-        <v>0.51572138405031</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>37664.58459606653</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5.593873271758539e-06</v>
+        <v>0.0002771974631255206</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21572.69324471288</v>
+        <v>41900.55093311185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02206701749515788</v>
+        <v>0.0007390179576929775</v>
       </c>
     </row>
     <row r="3">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1073.924204154065</v>
+        <v>-1073.924204155037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.756005482118886</v>
+        <v>0.7560054821188428</v>
       </c>
     </row>
     <row r="4">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1510.411160848795</v>
+        <v>-1510.411160902722</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5420758640830412</v>
+        <v>0.5420758640710289</v>
       </c>
     </row>
     <row r="5">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-482.2125665217872</v>
+        <v>-482.2125665529231</v>
       </c>
       <c r="C5" t="n">
-        <v>0.661895617929775</v>
+        <v>0.6618956179154478</v>
       </c>
     </row>
     <row r="6">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>626.0288816609019</v>
+        <v>626.0288816452157</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5929789579673778</v>
+        <v>0.5929789579768968</v>
       </c>
     </row>
     <row r="7">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2081.107671935808</v>
+        <v>-2081.107671930903</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09714092164187894</v>
+        <v>0.0971409216424685</v>
       </c>
     </row>
     <row r="8">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160.9907262193303</v>
+        <v>160.9907262204018</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8913694125022401</v>
+        <v>0.891369412501529</v>
       </c>
     </row>
     <row r="9">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>335.5165073640874</v>
+        <v>335.5165073664518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3960724200492035</v>
+        <v>0.3960724200447621</v>
       </c>
     </row>
     <row r="10">
@@ -2834,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2397.672479846457</v>
+        <v>-2397.672479847522</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006123388902811844</v>
+        <v>0.006123388902779435</v>
       </c>
     </row>
     <row r="11">
@@ -2847,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-17.38245493984035</v>
+        <v>-17.38245493974424</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6727096069597083</v>
+        <v>0.6727096069609477</v>
       </c>
     </row>
     <row r="12">
@@ -2860,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1188.631319099373</v>
+        <v>3298.683471837617</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1814133932441304</v>
+        <v>0.02224714726419066</v>
       </c>
     </row>
     <row r="13">
@@ -2873,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1600.414785942034</v>
+        <v>1358.865539729144</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01233925636718039</v>
+        <v>0.02338986889552194</v>
       </c>
     </row>
     <row r="14">
@@ -2886,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.681626860992484</v>
+        <v>0.9258142359806888</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07382497531291091</v>
+        <v>0.552633967102077</v>
       </c>
     </row>
     <row r="15">
@@ -2899,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004185716985844443</v>
+        <v>0.005639915264463706</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1043293728361734</v>
+        <v>0.03643371540310667</v>
       </c>
     </row>
     <row r="16">
@@ -2912,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-92.47361637023457</v>
+        <v>-60.86427212897477</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3972064743213964</v>
+        <v>0.5758375774320359</v>
       </c>
     </row>
     <row r="17">
@@ -2925,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-66.86675519124127</v>
+        <v>-312.5248247735189</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2561960133102975</v>
+        <v>0.003489136347455164</v>
       </c>
     </row>
     <row r="18">
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-10403.15199927304</v>
+        <v>-55551.87393195423</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02388894724445143</v>
+        <v>0.0005181234834453176</v>
       </c>
     </row>
     <row r="19">
@@ -2951,23 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-315.502505946847</v>
+        <v>-16501.20303186312</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9211516023015545</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>30126.65656719335</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0001993026177408534</v>
+        <v>0.006968500349389901</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Potsdam.xlsx
+++ b/outputs/ML_Results/dist_commute/Potsdam.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ57582494" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ57747615" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ57936091" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ58144914" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ58351047" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ58555852" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ58775714" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ58995484" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ59223124" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ32807652" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ33005472" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ33227580" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ33464105" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ33703834" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ33940790" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ34173058" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ34409271" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ34661093" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48388.13892969086</v>
+        <v>41407.7803465137</v>
       </c>
       <c r="C2" t="n">
-        <v>6.412433492331186e-05</v>
+        <v>0.0006628191439897685</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1782.444445500957</v>
+        <v>-1992.764096551874</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5776362076417499</v>
+        <v>0.4962743904462246</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.4712726556329</v>
+        <v>757.4950727905778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9675037716095134</v>
+        <v>0.7486116088637917</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-649.411608053251</v>
+        <v>293.640328008847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.542236537013196</v>
+        <v>0.7765338595920594</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-815.5246198113955</v>
+        <v>757.3559244258079</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4716237593566868</v>
+        <v>0.4905110387440367</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2140.762217596977</v>
+        <v>-3139.734762936293</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08072428041606737</v>
+        <v>0.01040618827142501</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>814.0151741714287</v>
+        <v>1029.168576382714</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4768604514103285</v>
+        <v>0.3468958102862412</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>195.4039126612307</v>
+        <v>254.2911792278375</v>
       </c>
       <c r="C9" t="n">
-        <v>0.606624504283757</v>
+        <v>0.4906959129718053</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2441.516642622631</v>
+        <v>-4249.707580283419</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003854217879368381</v>
+        <v>3.236214222045828e-07</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.76976749056942</v>
+        <v>-34.08979943570154</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7838897595415406</v>
+        <v>0.3718040505933501</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4323.026048260081</v>
+        <v>3116.541354144687</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002617696491034755</v>
+        <v>0.02489919169115533</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1732.785920136671</v>
+        <v>1117.084758426485</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00236258591536281</v>
+        <v>0.0494679339254499</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.441305300643479</v>
+        <v>1.090459009921989</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3477040507902734</v>
+        <v>0.4808831754895437</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006422180052392368</v>
+        <v>0.00480503629158356</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01266193632192325</v>
+        <v>0.05623593037186726</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-21.64009780032899</v>
+        <v>19.1202178196074</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8372437085371004</v>
+        <v>0.8732886905286649</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-395.3649129977638</v>
+        <v>-275.6419326931323</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001663580813489601</v>
+        <v>0.00609757240253742</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-75776.32883818587</v>
+        <v>-62047.4583458522</v>
       </c>
       <c r="C18" t="n">
-        <v>2.007672561784062e-06</v>
+        <v>6.918362614733149e-05</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-24246.61043322687</v>
+        <v>-17299.50363648712</v>
       </c>
       <c r="C19" t="n">
-        <v>6.837433183910342e-05</v>
+        <v>0.01028459287111658</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50316.85759904094</v>
+        <v>44243.93435031355</v>
       </c>
       <c r="C2" t="n">
-        <v>4.804598563059044e-05</v>
+        <v>0.0004423889998117668</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1211.73672912545</v>
+        <v>-2274.661000212181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7151875805515385</v>
+        <v>0.4727092680225111</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1502.046420983823</v>
+        <v>-2721.507096443398</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5351299252748909</v>
+        <v>0.2244832721650814</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-108.89982693305</v>
+        <v>595.4848692536125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9214625913099055</v>
+        <v>0.5790752839533724</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156.0715807275587</v>
+        <v>1201.04784410779</v>
       </c>
       <c r="C6" t="n">
-        <v>0.893370877957861</v>
+        <v>0.2886916753827174</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2118.032367995363</v>
+        <v>-2405.336749523643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09613406434173076</v>
+        <v>0.05702104131104788</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-68.37910664530295</v>
+        <v>1239.64712737159</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9540250604843431</v>
+        <v>0.2775114114300545</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>708.6578367697207</v>
+        <v>513.0272954305049</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07379567547494729</v>
+        <v>0.1783616486807937</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1990.974615509778</v>
+        <v>-3170.655174962905</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02181202236237797</v>
+        <v>0.000208019590499778</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.727079822047774</v>
+        <v>-20.25349944527488</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9659152174571624</v>
+        <v>0.6106793180807994</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3539.85598778151</v>
+        <v>3426.583249711028</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01620157647045108</v>
+        <v>0.01793047152041439</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1631.323041177203</v>
+        <v>1350.712646845486</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005580159591455415</v>
+        <v>0.02130507231083101</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.47707738771382</v>
+        <v>1.436204862199553</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3552601453995278</v>
+        <v>0.3709304156448133</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004571694049866487</v>
+        <v>0.004912042741092221</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09176379257836624</v>
+        <v>0.05499341432414347</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-155.7921295775583</v>
+        <v>-50.43325781044473</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1527624598268154</v>
+        <v>0.6819666446065935</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-376.0737215038982</v>
+        <v>-317.2575005181553</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004479849980682893</v>
+        <v>0.002339796625464507</v>
       </c>
     </row>
     <row r="18">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-58925.14597036533</v>
+        <v>-62318.45418115536</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0002991308949822235</v>
+        <v>9.588522720096476e-05</v>
       </c>
     </row>
     <row r="19">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-16334.83748321832</v>
+        <v>-16546.39941891083</v>
       </c>
       <c r="C19" t="n">
-        <v>0.008867191778369787</v>
+        <v>0.01623856178842681</v>
       </c>
     </row>
   </sheetData>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37836.49946629736</v>
+        <v>54670.4366394677</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00187732867229612</v>
+        <v>1.788288970446773e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1770.667758714737</v>
+        <v>-2199.379725593583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5981991483439294</v>
+        <v>0.4814684640505797</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1294.485126014617</v>
+        <v>-3501.009921054138</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5664704740103742</v>
+        <v>0.1423206561652906</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-62.05958742261146</v>
+        <v>352.9911258844055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9552862849762619</v>
+        <v>0.7359349306352322</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>798.9394091189869</v>
+        <v>-509.1820141410276</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4865892987021568</v>
+        <v>0.6439425266222278</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1790.600922870314</v>
+        <v>-2705.568446678333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1464538086616735</v>
+        <v>0.02762213641433518</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>960.4598164721406</v>
+        <v>1389.583836617949</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4093079571490915</v>
+        <v>0.2195308375820355</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.04653672220843</v>
+        <v>585.8762279009952</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8970971489685577</v>
+        <v>0.11869896293354</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2223.052974924824</v>
+        <v>-3683.60483130488</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009241261205009553</v>
+        <v>1.112085324008301e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13.78407676093567</v>
+        <v>-16.64336631530326</v>
       </c>
       <c r="C11" t="n">
-        <v>0.727616264438152</v>
+        <v>0.6712088321056641</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3569.978588568294</v>
+        <v>5065.570809720886</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01309172811082776</v>
+        <v>0.0003523768520956499</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1160.837480077823</v>
+        <v>1768.437402889948</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04456000732339827</v>
+        <v>0.002875610464558558</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.149367422341297</v>
+        <v>3.099475945174095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1566944487742698</v>
+        <v>0.04721244441631316</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003683898304637008</v>
+        <v>0.004270920815761913</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1489340224945252</v>
+        <v>0.087518593285367</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-13.05172121395294</v>
+        <v>-78.55918399867392</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9018707402573765</v>
+        <v>0.5179400106293703</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-283.7803421040505</v>
+        <v>-439.3000670292466</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00692676870450533</v>
+        <v>2.989677803568117e-05</v>
       </c>
     </row>
     <row r="18">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-60593.01221857138</v>
+        <v>-76932.39333344941</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001335005483905578</v>
+        <v>1.527230990841196e-06</v>
       </c>
     </row>
     <row r="19">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-19566.64761554763</v>
+        <v>-20412.80140342211</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001233325132557768</v>
+        <v>0.002662965099898388</v>
       </c>
     </row>
   </sheetData>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32188.49469067392</v>
+        <v>57515.06011964586</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01008119558870854</v>
+        <v>4.268864780583151e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2142.294723981294</v>
+        <v>-3881.996478285468</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5214163676233274</v>
+        <v>0.2447103782149881</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-185.7953243495963</v>
+        <v>-720.6650534564437</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9358851560823436</v>
+        <v>0.7441884378682686</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-495.2997976728053</v>
+        <v>879.4081748411754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6494510398671758</v>
+        <v>0.4047156160375482</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>519.1811280463722</v>
+        <v>465.5783319323316</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6498353664508388</v>
+        <v>0.6778123997374629</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1545.641232499398</v>
+        <v>-1102.597133210991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2116110235472322</v>
+        <v>0.3904568929881369</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1198.506569353119</v>
+        <v>1509.293160290227</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3060729639963438</v>
+        <v>0.178846674713288</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.9985855238829</v>
+        <v>593.6135899852588</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5393247324239192</v>
+        <v>0.1155169285011113</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2479.170741966613</v>
+        <v>-2712.57380853497</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003836055173748384</v>
+        <v>0.001317139733160538</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.21672720592553</v>
+        <v>25.3256872011969</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7760884998447114</v>
+        <v>0.5213180281873375</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3344.873400287221</v>
+        <v>5519.994490453826</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02088195533823041</v>
+        <v>0.0001449179862437103</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155.012170316975</v>
+        <v>1846.97549777707</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0549457679494846</v>
+        <v>0.001356518925948631</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.677624108791005</v>
+        <v>3.796447828003597</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2733335097750446</v>
+        <v>0.01771167363958249</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003993006947792952</v>
+        <v>0.003075839622017652</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1200933401285107</v>
+        <v>0.221924966564825</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.01616794228928</v>
+        <v>-98.96402729802641</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7233554499810744</v>
+        <v>0.4172862622267837</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-255.8688349562393</v>
+        <v>-479.8696310405218</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01831268505915484</v>
+        <v>4.043034264483991e-06</v>
       </c>
     </row>
     <row r="18">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-57054.78563082097</v>
+        <v>-84678.4253634529</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0003021808086707618</v>
+        <v>1.54633790259643e-07</v>
       </c>
     </row>
     <row r="19">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-19101.90532147272</v>
+        <v>-23295.1730951785</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001398760962318482</v>
+        <v>0.0007859469338051953</v>
       </c>
     </row>
   </sheetData>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42057.94357750154</v>
+        <v>49629.05356020259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008710999358059945</v>
+        <v>6.02627776430433e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1467.460011621122</v>
+        <v>-4796.240835107748</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6617674983661634</v>
+        <v>0.125808825476871</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-577.8431677726256</v>
+        <v>-435.6077444268751</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7957485319316548</v>
+        <v>0.8475096637403239</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>108.4664955565125</v>
+        <v>493.4323340256412</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9190755502020025</v>
+        <v>0.6466055458932252</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1446.277322256145</v>
+        <v>493.5855538630327</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2069597232449678</v>
+        <v>0.659465492483882</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1928.385754427861</v>
+        <v>-2480.279853296037</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1214136666236153</v>
+        <v>0.04555948860375721</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1086.596458857314</v>
+        <v>1192.061465218937</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3437525689628075</v>
+        <v>0.2932978301762489</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.4250592294269</v>
+        <v>161.7976146857548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.680690629087813</v>
+        <v>0.6709713170034635</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2281.592064236926</v>
+        <v>-3595.680018345791</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007272451691427017</v>
+        <v>1.988247589301026e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.90376440807683</v>
+        <v>3.875884239631107</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5726880042341083</v>
+        <v>0.9210435323421868</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3371.026513061146</v>
+        <v>3449.587026528622</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01957917289225794</v>
+        <v>0.01565681397992285</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1362.872423375</v>
+        <v>1622.046842808161</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02432286608885167</v>
+        <v>0.004398663099092109</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.312648662613307</v>
+        <v>1.716815192750802</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3933052648826918</v>
+        <v>0.2903769885358877</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00512653227135705</v>
+        <v>0.004447773761286972</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04440880957148555</v>
+        <v>0.09437823457208847</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-81.99320360931094</v>
+        <v>-50.99068151162482</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4427890778422953</v>
+        <v>0.6770946234493309</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-322.4721811233935</v>
+        <v>-358.5520080118937</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002983001393477098</v>
+        <v>0.0004365208822314784</v>
       </c>
     </row>
     <row r="18">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-59966.21951039504</v>
+        <v>-68420.06547355493</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001478236350038382</v>
+        <v>1.483434085419875e-05</v>
       </c>
     </row>
     <row r="19">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-18442.96243771159</v>
+        <v>-17832.90866951117</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001946233804303884</v>
+        <v>0.009024251226758389</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48069.69081743185</v>
+        <v>44170.93392995794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001371435563180467</v>
+        <v>0.0003425406611407034</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3815.622224748303</v>
+        <v>-1915.062804746432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2437703467336385</v>
+        <v>0.5278836121702072</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1228.074690560882</v>
+        <v>-202.6201809976631</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5973766884738201</v>
+        <v>0.9317387633087634</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-290.8348267282621</v>
+        <v>816.4000731879403</v>
       </c>
       <c r="C5" t="n">
-        <v>0.793242317790733</v>
+        <v>0.4476903772663307</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-223.8228127317807</v>
+        <v>441.7542534609074</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8462056809092249</v>
+        <v>0.6985359560946862</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2404.253122792813</v>
+        <v>-2177.087638929784</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05381774777570738</v>
+        <v>0.08127785405862015</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>377.1402336153218</v>
+        <v>493.2600620255604</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7461348871595886</v>
+        <v>0.6684477164240283</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-171.7188265690496</v>
+        <v>567.4703644305812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6609412039611036</v>
+        <v>0.142107168083953</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2861.2484786837</v>
+        <v>-2197.86572806215</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008796563506282997</v>
+        <v>0.01037152280772111</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.496764512877526</v>
+        <v>3.929375729235405</v>
       </c>
       <c r="C11" t="n">
-        <v>0.814379821965455</v>
+        <v>0.920817868043641</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3268.254316022788</v>
+        <v>4048.21543183525</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02353495042904001</v>
+        <v>0.00530085636745911</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1772.30274143566</v>
+        <v>1494.43870469151</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003991586190005331</v>
+        <v>0.008570008683285451</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2323919347517034</v>
+        <v>2.464899260058922</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8825846091265972</v>
+        <v>0.1220658883072311</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007963265138135986</v>
+        <v>0.003038058581533944</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003164246684863037</v>
+        <v>0.2263055799971856</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-89.0583702558865</v>
+        <v>-20.11690002170334</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4111751970131392</v>
+        <v>0.8686603457810492</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-367.4997589042393</v>
+        <v>-347.1428995987587</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0007504480227069818</v>
+        <v>0.0007074022100900402</v>
       </c>
     </row>
     <row r="18">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-62228.33947984863</v>
+        <v>-64955.7397750141</v>
       </c>
       <c r="C18" t="n">
-        <v>8.687050165374326e-05</v>
+        <v>5.287297162007879e-05</v>
       </c>
     </row>
     <row r="19">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-18248.68345657683</v>
+        <v>-17849.11665258174</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002389234902092773</v>
+        <v>0.01003721633534962</v>
       </c>
     </row>
   </sheetData>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44298.23300949324</v>
+        <v>56012.32195236623</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003010207632154263</v>
+        <v>4.638669849549373e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4093.873669886423</v>
+        <v>-1189.191574811923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2277393556059755</v>
+        <v>0.7159940518601169</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.24709861160079</v>
+        <v>-1499.951785873385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9948524864586208</v>
+        <v>0.4840733745685495</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-434.7660001072068</v>
+        <v>21.8637696530111</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6886674430987304</v>
+        <v>0.983653669446531</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-446.4354111775852</v>
+        <v>310.6271006449509</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7034843985964108</v>
+        <v>0.7777390409311167</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2441.259036403724</v>
+        <v>-1911.597362923828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04954528384785459</v>
+        <v>0.1270292660033243</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-203.9221158479109</v>
+        <v>1966.512981479784</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8607168778693697</v>
+        <v>0.07775079480948027</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>241.077216035526</v>
+        <v>267.6977553265004</v>
       </c>
       <c r="C9" t="n">
-        <v>0.544460082684154</v>
+        <v>0.469616103441409</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2574.505520660714</v>
+        <v>-3243.25286298887</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002806074180964604</v>
+        <v>0.0001104686505606411</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-16.62412435110581</v>
+        <v>10.05568610755432</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6824695085361749</v>
+        <v>0.7984447189079557</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3205.055317999837</v>
+        <v>3931.620073588612</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02772723264659586</v>
+        <v>0.005711921509114452</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1430.27950585836</v>
+        <v>1924.547720817261</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01413299614047292</v>
+        <v>0.0007010898973724181</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.236500718755062</v>
+        <v>1.453692859022329</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4331064519354841</v>
+        <v>0.3509240823312112</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005267187212211479</v>
+        <v>0.006669008029552922</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04802737757586025</v>
+        <v>0.007144141314798362</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-44.35442186085369</v>
+        <v>-105.8531993974911</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6780992411612363</v>
+        <v>0.3749516544900643</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-319.362657703246</v>
+        <v>-429.899354939501</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002538581294021046</v>
+        <v>2.659848001240907e-05</v>
       </c>
     </row>
     <row r="18">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-62369.6339579436</v>
+        <v>-75675.86338724117</v>
       </c>
       <c r="C18" t="n">
-        <v>9.290948365056726e-05</v>
+        <v>1.877638849241386e-06</v>
       </c>
     </row>
     <row r="19">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-19070.2472711519</v>
+        <v>-19373.1307894511</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001796516212652147</v>
+        <v>0.004320628788865522</v>
       </c>
     </row>
   </sheetData>
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47602.58316829699</v>
+        <v>43673.04047041417</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001882666640801452</v>
+        <v>0.0002946397244294126</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-994.2328223702136</v>
+        <v>-2641.031320706251</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7685979505122461</v>
+        <v>0.3763054213579197</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-669.0669991753412</v>
+        <v>-2069.977178342234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7679474538943087</v>
+        <v>0.3651836141747455</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-904.4898269580635</v>
+        <v>-191.9510557067897</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4141007997167711</v>
+        <v>0.8556056485880579</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82.54585217494764</v>
+        <v>743.4345906772157</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9427910349699218</v>
+        <v>0.5074278644750603</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1391.670274326466</v>
+        <v>-2316.214467562426</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2648127684507373</v>
+        <v>0.06433350051095522</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>256.4063014301983</v>
+        <v>1131.541371498852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8284183075690252</v>
+        <v>0.3135798445445772</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.70953306849981</v>
+        <v>266.2432205230585</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9581288387598003</v>
+        <v>0.4724446738811805</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2614.880449043933</v>
+        <v>-3951.828861129356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002406977312391701</v>
+        <v>3.135838077953766e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.22801977334882</v>
+        <v>10.18544034537253</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6530127271475457</v>
+        <v>0.7935433976795323</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4119.376646096944</v>
+        <v>4593.920004371461</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005045474849311964</v>
+        <v>0.001239266516476832</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1440.390343072864</v>
+        <v>1366.719364318408</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01734170963960689</v>
+        <v>0.01396991399278751</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.084782872470002</v>
+        <v>2.384355152442584</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1784377271879789</v>
+        <v>0.1256633447974832</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004750123954651946</v>
+        <v>0.004654090612864017</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06543243144017356</v>
+        <v>0.05724145850291754</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-27.65610216965975</v>
+        <v>25.07075290475631</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7980508229437142</v>
+        <v>0.8325322926806615</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-360.2575140907234</v>
+        <v>-355.2902540599409</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00109234307792483</v>
+        <v>0.0004117102352303875</v>
       </c>
     </row>
     <row r="18">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-71011.16217023801</v>
+        <v>-71519.59318340936</v>
       </c>
       <c r="C18" t="n">
-        <v>1.283638956198221e-05</v>
+        <v>5.71100151262612e-06</v>
       </c>
     </row>
     <row r="19">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-22282.43938217441</v>
+        <v>-21200.53670036269</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0002771974631255206</v>
+        <v>0.001767513889834987</v>
       </c>
     </row>
   </sheetData>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41900.55093311185</v>
+        <v>48429.60646489552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007390179576929775</v>
+        <v>9.292593871525202e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1073.924204155037</v>
+        <v>-218.3464993503867</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7560054821188428</v>
+        <v>0.9514342561980165</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1510.411160902722</v>
+        <v>-1311.989545567023</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5420758640710289</v>
+        <v>0.5607921972210741</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-482.2125665529231</v>
+        <v>-208.6493547999289</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6618956179154478</v>
+        <v>0.8452530653691153</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>626.0288816452157</v>
+        <v>929.536461841441</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5929789579768968</v>
+        <v>0.4082814111394936</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2081.107671930903</v>
+        <v>-2090.523512187687</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0971409216424685</v>
+        <v>0.0998197362579665</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160.9907262204018</v>
+        <v>1726.845838432336</v>
       </c>
       <c r="C8" t="n">
-        <v>0.891369412501529</v>
+        <v>0.1284497328258977</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>335.5165073664518</v>
+        <v>564.9041344910626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3960724200447621</v>
+        <v>0.1385498310193502</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2397.672479847522</v>
+        <v>-3254.326553613988</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006123388902779435</v>
+        <v>0.0001365295722288176</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-17.38245493974424</v>
+        <v>-11.52884504652118</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6727096069609477</v>
+        <v>0.7738156197864705</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3298.683471837617</v>
+        <v>3229.22368001982</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02224714726419066</v>
+        <v>0.02413801228590632</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1358.865539729144</v>
+        <v>1687.546391662516</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02338986889552194</v>
+        <v>0.003624056309418435</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9258142359806888</v>
+        <v>0.8158658638605514</v>
       </c>
       <c r="C14" t="n">
-        <v>0.552633967102077</v>
+        <v>0.6038185094286774</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005639915264463706</v>
+        <v>0.006308896674295069</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03643371540310667</v>
+        <v>0.01172042423899295</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-60.86427212897477</v>
+        <v>-70.64027786661909</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5758375774320359</v>
+        <v>0.5599575661679284</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-312.5248247735189</v>
+        <v>-349.6360144702477</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003489136347455164</v>
+        <v>0.000698568549283203</v>
       </c>
     </row>
     <row r="18">
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-55551.87393195423</v>
+        <v>-68178.82430719819</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005181234834453176</v>
+        <v>2.555973404638645e-05</v>
       </c>
     </row>
     <row r="19">
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-16501.20303186312</v>
+        <v>-18083.26221061998</v>
       </c>
       <c r="C19" t="n">
-        <v>0.006968500349389901</v>
+        <v>0.009330732428285377</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Potsdam.xlsx
+++ b/outputs/ML_Results/dist_commute/Potsdam.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ32807652" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ33005472" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ33227580" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ33464105" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ33703834" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ33940790" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ34173058" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ34409271" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ34661093" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ16711027" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ17116329" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ17353373" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ17589307" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ17833707" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ18069531" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ18309973" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ18533066" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ18782861" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Potsdam.xlsx
+++ b/outputs/ML_Results/dist_commute/Potsdam.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ16711027" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ17116329" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ17353373" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ17589307" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ17833707" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ18069531" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ18309973" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ18533066" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ18782861" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ23123459" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ23345727" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ23584201" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ23840429" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ24084801" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ24332998" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ24591359" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ24933304" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ25171593" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41407.7803465137</v>
+        <v>37707.8188057697</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006628191439897685</v>
+        <v>0.1866743134184894</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1992.764096551874</v>
+        <v>-1992.764096648241</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4962743904462246</v>
+        <v>0.4962743904462488</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757.4950727905778</v>
+        <v>757.4950727789574</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7486116088637917</v>
+        <v>0.7486116088676886</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>293.640328008847</v>
+        <v>293.6403280036505</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7765338595920594</v>
+        <v>0.7765338595962031</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757.3559244258079</v>
+        <v>757.3559244472522</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4905110387440367</v>
+        <v>0.4905110387315536</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3139.734762936293</v>
+        <v>-3139.734762956004</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01040618827142501</v>
+        <v>0.01040618827102335</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1029.168576382714</v>
+        <v>1029.168576373044</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3468958102862412</v>
+        <v>0.3468958102904496</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>254.2911792278375</v>
+        <v>254.2911792340148</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4906959129718053</v>
+        <v>0.4906959129600391</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4249.707580283419</v>
+        <v>-4249.707580281235</v>
       </c>
       <c r="C10" t="n">
-        <v>3.236214222045828e-07</v>
+        <v>3.236214222096067e-07</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-34.08979943570154</v>
+        <v>-34.08979943594871</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3718040505933501</v>
+        <v>0.3718040505903579</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3116.541354144687</v>
+        <v>3233.88217728758</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02489919169115533</v>
+        <v>0.05472053070203205</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1117.084758426485</v>
+        <v>721.9186907933702</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0494679339254499</v>
+        <v>0.7679471922210803</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.090459009921989</v>
+        <v>1.726055520947776</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4808831754895437</v>
+        <v>0.688041657326997</v>
       </c>
     </row>
     <row r="15">
@@ -635,62 +635,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00480503629158356</v>
+        <v>0.003365841439286669</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05623593037186726</v>
+        <v>0.7120024967038556</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.1202178196074</v>
+        <v>-242.240680539848</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8732886905286649</v>
+        <v>0.3038109832765604</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-275.6419326931323</v>
+        <v>-67859.34709253162</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00609757240253742</v>
+        <v>0.06036413095956226</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-62047.4583458522</v>
+        <v>-6936.979349151519</v>
       </c>
       <c r="C18" t="n">
-        <v>6.918362614733149e-05</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-17299.50363648712</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01028459287111658</v>
+        <v>0.8937939614185367</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44243.93435031355</v>
+        <v>50670.15329563315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004423889998117668</v>
+        <v>0.08551063324457257</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2274.661000212181</v>
+        <v>-2274.661000402885</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4727092680225111</v>
+        <v>0.4727092680225251</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2721.507096443398</v>
+        <v>-2721.507096448205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2244832721650814</v>
+        <v>0.2244832721643854</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>595.4848692536125</v>
+        <v>595.4848692374321</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5790752839533724</v>
+        <v>0.5790752839650242</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1201.04784410779</v>
+        <v>1201.047844132434</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2886916753827174</v>
+        <v>0.2886916753728002</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2405.336749523643</v>
+        <v>-2405.336749516179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05702104131104788</v>
+        <v>0.05702104131176408</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1239.64712737159</v>
+        <v>1239.647127377935</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2775114114300545</v>
+        <v>0.2775114114279175</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>513.0272954305049</v>
+        <v>513.0272954464899</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1783616486807937</v>
+        <v>0.1783616486646967</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3170.655174962905</v>
+        <v>-3170.655174977535</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000208019590499778</v>
+        <v>0.0002080195904852253</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-20.25349944527488</v>
+        <v>-20.25349944702982</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6106793180807994</v>
+        <v>0.6106793180516573</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3426.583249711028</v>
+        <v>3286.180649227678</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01793047152041439</v>
+        <v>0.06000049057639041</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1350.712646845486</v>
+        <v>2127.221780234819</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02130507231083101</v>
+        <v>0.3989547843865566</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.436204862199553</v>
+        <v>0.2945996966770965</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3709304156448133</v>
+        <v>0.9470608290309555</v>
       </c>
     </row>
     <row r="15">
@@ -905,62 +892,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004912042741092221</v>
+        <v>0.007853435524624662</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05499341432414347</v>
+        <v>0.4032624391508753</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-50.43325781044473</v>
+        <v>-382.833320733585</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6819666446065935</v>
+        <v>0.1156093703974405</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-317.2575005181553</v>
+        <v>-52238.88212615075</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002339796625464507</v>
+        <v>0.1569975877383002</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-62318.45418115536</v>
+        <v>-37567.56051220227</v>
       </c>
       <c r="C18" t="n">
-        <v>9.588522720096476e-05</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-16546.39941891083</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01623856178842681</v>
+        <v>0.4820999316995886</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54670.4366394677</v>
+        <v>64013.97951805184</v>
       </c>
       <c r="C2" t="n">
-        <v>1.788288970446773e-05</v>
+        <v>0.02913707755043685</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2199.379725593583</v>
+        <v>-2199.379725620934</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4814684640505797</v>
+        <v>0.4814684640504018</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3501.009921054138</v>
+        <v>-3501.009921045888</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1423206561652906</v>
+        <v>0.1423206561660636</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>352.9911258844055</v>
+        <v>352.9911259521036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7359349306352322</v>
+        <v>0.7359349305825176</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-509.1820141410276</v>
+        <v>-509.1820141760028</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6439425266222278</v>
+        <v>0.6439425265997654</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2705.568446678333</v>
+        <v>-2705.568446740982</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02762213641433518</v>
+        <v>0.02762213641131731</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1389.583836617949</v>
+        <v>1389.583836562854</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2195308375820355</v>
+        <v>0.2195308375989529</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>585.8762279009952</v>
+        <v>585.876227919839</v>
       </c>
       <c r="C9" t="n">
-        <v>0.11869896293354</v>
+        <v>0.118698962918716</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3683.60483130488</v>
+        <v>-3683.604831305717</v>
       </c>
       <c r="C10" t="n">
-        <v>1.112085324008301e-05</v>
+        <v>1.112085324002282e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-16.64336631530326</v>
+        <v>-16.64336631629224</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6712088321056641</v>
+        <v>0.6712088320884104</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5065.570809720886</v>
+        <v>4880.681839131155</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003523768520956499</v>
+        <v>0.0041158163417247</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1768.437402889948</v>
+        <v>2924.842503055312</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002875610464558558</v>
+        <v>0.2421062875470582</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.099475945174095</v>
+        <v>1.428171687674421</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04721244441631316</v>
+        <v>0.7416405656478247</v>
       </c>
     </row>
     <row r="15">
@@ -1175,62 +1149,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004270920815761913</v>
+        <v>0.008681771031662806</v>
       </c>
       <c r="C15" t="n">
-        <v>0.087518593285367</v>
+        <v>0.3471543527190636</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-78.55918399867392</v>
+        <v>-536.9422693006325</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5179400106293703</v>
+        <v>0.02713668542395312</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-439.3000670292466</v>
+        <v>-62281.44524995427</v>
       </c>
       <c r="C17" t="n">
-        <v>2.989677803568117e-05</v>
+        <v>0.08551269201055003</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-76932.39333344941</v>
+        <v>-51895.0371646952</v>
       </c>
       <c r="C18" t="n">
-        <v>1.527230990841196e-06</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-20412.80140342211</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.002662965099898388</v>
+        <v>0.3256425588641039</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57515.06011964586</v>
+        <v>69369.01695424708</v>
       </c>
       <c r="C2" t="n">
-        <v>4.268864780583151e-06</v>
+        <v>0.0173153367780688</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3881.996478285468</v>
+        <v>-3881.996478184989</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2447103782149881</v>
+        <v>0.2447103782149897</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-720.6650534564437</v>
+        <v>-720.6650532346116</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7441884378682686</v>
+        <v>0.7441884379423854</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>879.4081748411754</v>
+        <v>879.4081750445582</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4047156160375482</v>
+        <v>0.4047156159160739</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.5783319323316</v>
+        <v>465.5783319591054</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6778123997374629</v>
+        <v>0.6778123997197967</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1102.597133210991</v>
+        <v>-1102.597133298843</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3904568929881369</v>
+        <v>0.39045689295132</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1509.293160290227</v>
+        <v>1509.293160203551</v>
       </c>
       <c r="C8" t="n">
-        <v>0.178846674713288</v>
+        <v>0.1788466747362409</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>593.6135899852588</v>
+        <v>593.6135900508123</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1155169285011113</v>
+        <v>0.1155169284552126</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2712.57380853497</v>
+        <v>-2712.573808532441</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001317139733160538</v>
+        <v>0.00131713973317391</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.3256872011969</v>
+        <v>25.32568720105449</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5213180281873375</v>
+        <v>0.5213180281898001</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5519.994490453826</v>
+        <v>5282.844539004927</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001449179862437103</v>
+        <v>0.002489021433996127</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1846.97549777707</v>
+        <v>3310.40550940993</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001356518925948631</v>
+        <v>0.1834447195409542</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.796447828003597</v>
+        <v>1.677635623108929</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01771167363958249</v>
+        <v>0.7019898188156788</v>
       </c>
     </row>
     <row r="15">
@@ -1445,62 +1406,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003075839622017652</v>
+        <v>0.008653779677627125</v>
       </c>
       <c r="C15" t="n">
-        <v>0.221924966564825</v>
+        <v>0.3502284000713271</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-98.96402729802641</v>
+        <v>-603.4378352460722</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4172862622267837</v>
+        <v>0.01209810814637296</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-479.8696310405218</v>
+        <v>-66090.47490376412</v>
       </c>
       <c r="C17" t="n">
-        <v>4.043034264483991e-06</v>
+        <v>0.07293755408150775</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-84678.4253634529</v>
+        <v>-63112.7502516672</v>
       </c>
       <c r="C18" t="n">
-        <v>1.54633790259643e-07</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-23295.1730951785</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0007859469338051953</v>
+        <v>0.2328203326667614</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49629.05356020259</v>
+        <v>55921.68417092872</v>
       </c>
       <c r="C2" t="n">
-        <v>6.02627776430433e-05</v>
+        <v>0.05533928940069813</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4796.240835107748</v>
+        <v>-4796.240835118333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.125808825476871</v>
+        <v>0.1258088254768752</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-435.6077444268751</v>
+        <v>-435.6077442633027</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8475096637403239</v>
+        <v>0.8475096637962043</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>493.4323340256412</v>
+        <v>493.4323339835444</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6466055458932252</v>
+        <v>0.6466055459229296</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>493.5855538630327</v>
+        <v>493.585554004173</v>
       </c>
       <c r="C6" t="n">
-        <v>0.659465492483882</v>
+        <v>0.6594654923922099</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2480.279853296037</v>
+        <v>-2480.279853216615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04555948860375721</v>
+        <v>0.04555948861033381</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1192.061465218937</v>
+        <v>1192.061465329791</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2932978301762489</v>
+        <v>0.2932978301329164</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.7976146857548</v>
+        <v>161.7976146872621</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6709713170034635</v>
+        <v>0.6709713170005034</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3595.680018345791</v>
+        <v>-3595.680018356776</v>
       </c>
       <c r="C10" t="n">
-        <v>1.988247589301026e-05</v>
+        <v>1.988247589182172e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.875884239631107</v>
+        <v>3.875884239527128</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9210435323421868</v>
+        <v>0.9210435323443136</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3449.587026528622</v>
+        <v>3318.013727123373</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01565681397992285</v>
+        <v>0.05551790010654388</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1622.046842808161</v>
+        <v>2390.82045748395</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004398663099092109</v>
+        <v>0.3378566848165522</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.716815192750802</v>
+        <v>0.5954289118341232</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2903769885358877</v>
+        <v>0.893629389423608</v>
       </c>
     </row>
     <row r="15">
@@ -1715,62 +1663,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004447773761286972</v>
+        <v>0.007369204698140081</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09437823457208847</v>
+        <v>0.4355230540327061</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-50.99068151162482</v>
+        <v>-423.4697633128545</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6770946234493309</v>
+        <v>0.07794585368965806</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-358.5520080118937</v>
+        <v>-58551.39946886298</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004365208822314784</v>
+        <v>0.1118015844605832</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-68420.06547355493</v>
+        <v>-38698.92885681865</v>
       </c>
       <c r="C18" t="n">
-        <v>1.483434085419875e-05</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-17832.90866951117</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.009024251226758389</v>
+        <v>0.466908398510462</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44170.93392995794</v>
+        <v>45271.88494091357</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003425406611407034</v>
+        <v>0.1176162483951257</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1915.062804746432</v>
+        <v>-1915.062804686716</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5278836121702072</v>
+        <v>0.527883612170189</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-202.6201809976631</v>
+        <v>-202.6201809403622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9317387633087634</v>
+        <v>0.9317387633277696</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>816.4000731879403</v>
+        <v>816.4000732156289</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4476903772663307</v>
+        <v>0.4476903772474075</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>441.7542534609074</v>
+        <v>441.7542534703364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6985359560946862</v>
+        <v>0.6985359560884989</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2177.087638929784</v>
+        <v>-2177.087638925222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08127785405862015</v>
+        <v>0.0812778540591807</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>493.2600620255604</v>
+        <v>493.2600620403744</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6684477164240283</v>
+        <v>0.6684477164150635</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>567.4703644305812</v>
+        <v>567.4703644340981</v>
       </c>
       <c r="C9" t="n">
-        <v>0.142107168083953</v>
+        <v>0.1421071680808503</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2197.86572806215</v>
+        <v>-2197.865728068417</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01037152280772111</v>
+        <v>0.01037152280749215</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.929375729235405</v>
+        <v>3.929375729413</v>
       </c>
       <c r="C11" t="n">
-        <v>0.920817868043641</v>
+        <v>0.9208178680400123</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4048.21543183525</v>
+        <v>4066.403481124313</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00530085636745911</v>
+        <v>0.02009446901229639</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1494.43870469151</v>
+        <v>1687.551814009733</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008570008683285451</v>
+        <v>0.4947421154164694</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.464899260058922</v>
+        <v>2.244211975376888</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1220658883072311</v>
+        <v>0.6083644399507462</v>
       </c>
     </row>
     <row r="15">
@@ -1985,62 +1920,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003038058581533944</v>
+        <v>0.003836316854071685</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2263055799971856</v>
+        <v>0.6775048186572969</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-20.11690002170334</v>
+        <v>-363.4168739693823</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8686603457810492</v>
+        <v>0.1268874710025832</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-347.1428995987587</v>
+        <v>-63238.69363718438</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0007074022100900402</v>
+        <v>0.08649848738800486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-64955.7397750141</v>
+        <v>-23464.81074193447</v>
       </c>
       <c r="C18" t="n">
-        <v>5.287297162007879e-05</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-17849.11665258174</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01003721633534962</v>
+        <v>0.6561974795094554</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56012.32195236623</v>
+        <v>70706.45210819697</v>
       </c>
       <c r="C2" t="n">
-        <v>4.638669849549373e-06</v>
+        <v>0.01295734770434589</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1189.191574811923</v>
+        <v>-1189.191574928073</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7159940518601169</v>
+        <v>0.715994051860124</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1499.951785873385</v>
+        <v>-1499.951785878266</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4840733745685495</v>
+        <v>0.4840733745673621</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.8637696530111</v>
+        <v>21.86376970662866</v>
       </c>
       <c r="C5" t="n">
-        <v>0.983653669446531</v>
+        <v>0.9836536694060896</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>310.6271006449509</v>
+        <v>310.6271006233337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7777390409311167</v>
+        <v>0.7777390409461862</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1911.597362923828</v>
+        <v>-1911.597362997494</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1270292660033243</v>
+        <v>0.1270292659900492</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1966.512981479784</v>
+        <v>1966.512981439275</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07775079480948027</v>
+        <v>0.07775079481391549</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>267.6977553265004</v>
+        <v>267.6977553324112</v>
       </c>
       <c r="C9" t="n">
-        <v>0.469616103441409</v>
+        <v>0.4696161034300229</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3243.25286298887</v>
+        <v>-3243.252862971125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001104686505606411</v>
+        <v>0.0001104686505726661</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.05568610755432</v>
+        <v>10.05568610711539</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7984447189079557</v>
+        <v>0.7984447189168683</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3931.620073588612</v>
+        <v>3575.731493181634</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005711921509114452</v>
+        <v>0.03614276773209076</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1924.547720817261</v>
+        <v>3650.546021186443</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007010898973724181</v>
+        <v>0.1331133742891666</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.453692859022329</v>
+        <v>-1.135981033745576</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3509240823312112</v>
+        <v>0.7903227296680135</v>
       </c>
     </row>
     <row r="15">
@@ -2255,62 +2177,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006669008029552922</v>
+        <v>0.01315197335985036</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007144141314798362</v>
+        <v>0.1454581539018233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-105.8531993974911</v>
+        <v>-575.6873975808788</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3749516544900643</v>
+        <v>0.01451578231371581</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-429.899354939501</v>
+        <v>-52619.92428087198</v>
       </c>
       <c r="C17" t="n">
-        <v>2.659848001240907e-05</v>
+        <v>0.1446624135318118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-75675.86338724117</v>
+        <v>-65778.3147660867</v>
       </c>
       <c r="C18" t="n">
-        <v>1.877638849241386e-06</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-19373.1307894511</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.004320628788865522</v>
+        <v>0.2034199734512859</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43673.04047041417</v>
+        <v>38083.83216394599</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002946397244294126</v>
+        <v>0.1765164289917893</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2641.031320706251</v>
+        <v>-2641.031320704994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3763054213579197</v>
+        <v>0.376305421357892</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2069.977178342234</v>
+        <v>-2069.97717837983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3651836141747455</v>
+        <v>0.3651836141669003</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-191.9510557067897</v>
+        <v>-191.9510557739828</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8556056485880579</v>
+        <v>0.8556056485400513</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>743.4345906772157</v>
+        <v>743.434590673405</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5074278644750603</v>
+        <v>0.5074278644772561</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2316.214467562426</v>
+        <v>-2316.214467561836</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06433350051095522</v>
+        <v>0.06433350051101792</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1131.541371498852</v>
+        <v>1131.541371542176</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3135798445445772</v>
+        <v>0.3135798445272937</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>266.2432205230585</v>
+        <v>266.2432205311051</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4724446738811805</v>
+        <v>0.4724446738665901</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3951.828861129356</v>
+        <v>-3951.828861138397</v>
       </c>
       <c r="C10" t="n">
-        <v>3.135838077953766e-06</v>
+        <v>3.135838077773014e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.18544034537253</v>
+        <v>10.18544034554014</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7935433976795323</v>
+        <v>0.7935433976761144</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4593.920004371461</v>
+        <v>4785.209212512303</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001239266516476832</v>
+        <v>0.005004125485358974</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1366.719364318408</v>
+        <v>789.7350147161881</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01396991399278751</v>
+        <v>0.7425617819662365</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.384355152442584</v>
+        <v>3.336155240678756</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1256633447974832</v>
+        <v>0.4326868319978746</v>
       </c>
     </row>
     <row r="15">
@@ -2525,62 +2434,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004654090612864017</v>
+        <v>0.002577801612584619</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05724145850291754</v>
+        <v>0.7734898259588856</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.07075290475631</v>
+        <v>-306.5079809062652</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8325322926806615</v>
+        <v>0.187801853223971</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-355.2902540599409</v>
+        <v>-80302.36197327686</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004117102352303875</v>
+        <v>0.02571400737514257</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-71519.59318340936</v>
+        <v>-6215.926067665332</v>
       </c>
       <c r="C18" t="n">
-        <v>5.71100151262612e-06</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-21200.53670036269</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.001767513889834987</v>
+        <v>0.903628112353897</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48429.60646489552</v>
+        <v>58354.83139423873</v>
       </c>
       <c r="C2" t="n">
-        <v>9.292593871525202e-05</v>
+        <v>0.04317030258946535</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-218.3464993503867</v>
+        <v>-218.3464993512193</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9514342561980165</v>
+        <v>0.9514342561980472</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1311.989545567023</v>
+        <v>-1311.989545580152</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5607921972210741</v>
+        <v>0.5607921972205225</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-208.6493547999289</v>
+        <v>-208.6493548125184</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8452530653691153</v>
+        <v>0.8452530653658052</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>929.536461841441</v>
+        <v>929.5364618434488</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4082814111394936</v>
+        <v>0.4082814111382721</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2090.523512187687</v>
+        <v>-2090.52351218522</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0998197362579665</v>
+        <v>0.09981973625775772</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1726.845838432336</v>
+        <v>1726.84583843441</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1284497328258977</v>
+        <v>0.1284497328257741</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>564.9041344910626</v>
+        <v>564.9041344925231</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1385498310193502</v>
+        <v>0.1385498310161001</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3254.326553613988</v>
+        <v>-3254.326553614183</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001365295722288176</v>
+        <v>0.0001365295722282364</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11.52884504652118</v>
+        <v>-11.52884504641621</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7738156197864705</v>
+        <v>0.7738156197869233</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3229.22368001982</v>
+        <v>2985.675914575285</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02413801228590632</v>
+        <v>0.08323816673088355</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1687.546391662516</v>
+        <v>2848.884860293112</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003624056309418435</v>
+        <v>0.2483310765794959</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8158658638605514</v>
+        <v>-0.9314638663154887</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6038185094286774</v>
+        <v>0.8294448055224191</v>
       </c>
     </row>
     <row r="15">
@@ -2795,62 +2691,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006308896674295069</v>
+        <v>0.01066582329681216</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01172042423899295</v>
+        <v>0.2429495702235456</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-70.64027786661909</v>
+        <v>-447.7321852552177</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5599575661679284</v>
+        <v>0.06008988893871017</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-349.6360144702477</v>
+        <v>-52604.83938640327</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000698568549283203</v>
+        <v>0.1526559902753027</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-68178.82430719819</v>
+        <v>-49277.14678440405</v>
       </c>
       <c r="C18" t="n">
-        <v>2.555973404638645e-05</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-18083.26221061998</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.009330732428285377</v>
+        <v>0.347467674019491</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Potsdam.xlsx
+++ b/outputs/ML_Results/dist_commute/Potsdam.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ23123459" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ23345727" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ23584201" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ23840429" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ24084801" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ24332998" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ24591359" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ24933304" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ25171593" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ40214162" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ40407170" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ40615968" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ40819295" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ41024070" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ41227333" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ41433280" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ41632825" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ41837698" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37707.8188057697</v>
+        <v>37707.81880749284</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1866743134184894</v>
+        <v>0.1866743133996379</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1992.764096648241</v>
+        <v>-1992.764096559453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4962743904462488</v>
+        <v>0.4962743904462791</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757.4950727789574</v>
+        <v>757.4950727914004</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7486116088676886</v>
+        <v>0.7486116088635275</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>293.6403280036505</v>
+        <v>293.640328026431</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7765338595962031</v>
+        <v>0.7765338595780218</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757.3559244472522</v>
+        <v>757.3559245185215</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4905110387315536</v>
+        <v>0.4905110386900748</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3139.734762956004</v>
+        <v>-3139.734762948167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01040618827102335</v>
+        <v>0.01040618827118306</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1029.168576373044</v>
+        <v>1029.168576376784</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3468958102904496</v>
+        <v>0.3468958102888228</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>254.2911792340148</v>
+        <v>254.291179225379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4906959129600391</v>
+        <v>0.4906959129764867</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4249.707580281235</v>
+        <v>-4249.707580283</v>
       </c>
       <c r="C10" t="n">
-        <v>3.236214222096067e-07</v>
+        <v>3.236214222055327e-07</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-34.08979943594871</v>
+        <v>-34.08979943588344</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3718040505903579</v>
+        <v>0.3718040505911531</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3233.88217728758</v>
+        <v>3233.882177157534</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05472053070203205</v>
+        <v>0.05472053071180575</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.9186907933702</v>
+        <v>721.9186908388933</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7679471922210803</v>
+        <v>0.7679471922070021</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.726055520947776</v>
+        <v>172.6055520766296</v>
       </c>
       <c r="C14" t="n">
-        <v>0.688041657326997</v>
+        <v>0.6880416573582456</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003365841439286669</v>
+        <v>3365.841439706518</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7120024967038556</v>
+        <v>0.7120024966697105</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-242.240680539848</v>
+        <v>-242.2406805398383</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3038109832765604</v>
+        <v>0.3038109832765824</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-67859.34709253162</v>
+        <v>-678.5934709253376</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06036413095956226</v>
+        <v>0.06036413095955375</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6936.979349151519</v>
+        <v>-69.36979349148757</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8937939614185367</v>
+        <v>0.8937939614185789</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50670.15329563315</v>
+        <v>50670.15329552749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08551063324457257</v>
+        <v>0.08551063324520257</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2274.661000402885</v>
+        <v>-2274.661000308608</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4727092680225251</v>
+        <v>0.4727092680225622</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2721.507096448205</v>
+        <v>-2721.507096383206</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2244832721643854</v>
+        <v>0.2244832721736599</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>595.4848692374321</v>
+        <v>595.4848693274726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5790752839650242</v>
+        <v>0.5790752839001782</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1201.047844132434</v>
+        <v>1201.047844022139</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2886916753728002</v>
+        <v>0.2886916754171863</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2405.336749516179</v>
+        <v>-2405.336749559299</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05702104131176408</v>
+        <v>0.05702104130762834</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1239.647127377935</v>
+        <v>1239.647127312701</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2775114114279175</v>
+        <v>0.2775114114498958</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>513.0272954464899</v>
+        <v>513.0272954518011</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1783616486646967</v>
+        <v>0.1783616486593447</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3170.655174977535</v>
+        <v>-3170.65517496984</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002080195904852253</v>
+        <v>0.0002080195904928785</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-20.25349944702982</v>
+        <v>-20.25349944762999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6106793180516573</v>
+        <v>0.6106793180417029</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3286.180649227678</v>
+        <v>3286.18064929413</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06000049057639041</v>
+        <v>0.06000049057112219</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2127.221780234819</v>
+        <v>2127.221780207152</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3989547843865566</v>
+        <v>0.3989547843926481</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2945996966770965</v>
+        <v>29.45996966104642</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9470608290309555</v>
+        <v>0.9470608290429111</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007853435524624662</v>
+        <v>7853.435525196122</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4032624391508753</v>
+        <v>0.4032624391165863</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-382.833320733585</v>
+        <v>-382.8333207335774</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1156093703974405</v>
+        <v>0.1156093703974486</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-52238.88212615075</v>
+        <v>-522.3888212615254</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1569975877383002</v>
+        <v>0.156997587738287</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37567.56051220227</v>
+        <v>-375.6756051219966</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4820999316995886</v>
+        <v>0.4820999316996198</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64013.97951805184</v>
+        <v>64013.97951769448</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02913707755043685</v>
+        <v>0.02913707755126642</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2199.379725620934</v>
+        <v>-2199.379725578715</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4814684640504018</v>
+        <v>0.4814684640504031</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3501.009921045888</v>
+        <v>-3501.0099210853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1423206561660636</v>
+        <v>0.1423206561623464</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>352.9911259521036</v>
+        <v>352.9911259032967</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7359349305825176</v>
+        <v>0.7359349306205245</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-509.1820141760028</v>
+        <v>-509.1820141589191</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6439425265997654</v>
+        <v>0.6439425266107361</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2705.568446740982</v>
+        <v>-2705.56844671701</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02762213641131731</v>
+        <v>0.02762213641247221</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1389.583836562854</v>
+        <v>1389.583836615174</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2195308375989529</v>
+        <v>0.2195308375828876</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>585.876227919839</v>
+        <v>585.8762279087914</v>
       </c>
       <c r="C9" t="n">
-        <v>0.118698962918716</v>
+        <v>0.1186989629274038</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3683.604831305717</v>
+        <v>-3683.604831309875</v>
       </c>
       <c r="C10" t="n">
-        <v>1.112085324002282e-05</v>
+        <v>1.112085323971546e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-16.64336631629224</v>
+        <v>-16.64336631618848</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6712088320884104</v>
+        <v>0.671208832090229</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4880.681839131155</v>
+        <v>4880.681839105368</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0041158163417247</v>
+        <v>0.004115816341914799</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2924.842503055312</v>
+        <v>2924.842503081557</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2421062875470582</v>
+        <v>0.2421062875429471</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.428171687674421</v>
+        <v>142.8171687739089</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7416405656478247</v>
+        <v>0.7416405656365421</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.008681771031662806</v>
+        <v>8681.771031323624</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3471543527190636</v>
+        <v>0.3471543527375667</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-536.9422693006325</v>
+        <v>-536.9422693006213</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02713668542395312</v>
+        <v>0.02713668542395639</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-62281.44524995427</v>
+        <v>-622.8144524995671</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08551269201055003</v>
+        <v>0.0855126920105381</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-51895.0371646952</v>
+        <v>-518.9503716469195</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3256425588641039</v>
+        <v>0.3256425588641332</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69369.01695424708</v>
+        <v>69369.01695520684</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0173153367780688</v>
+        <v>0.01731533677668987</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3881.996478184989</v>
+        <v>-3881.996478252943</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2447103782149897</v>
+        <v>0.2447103782149913</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-720.6650532346116</v>
+        <v>-720.665053313538</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7441884379423854</v>
+        <v>0.7441884379160019</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>879.4081750445582</v>
+        <v>879.408175225909</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4047156159160739</v>
+        <v>0.4047156158077508</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.5783319591054</v>
+        <v>465.5783319028384</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6778123997197967</v>
+        <v>0.6778123997569219</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1102.597133298843</v>
+        <v>-1102.597133314528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.39045689295132</v>
+        <v>0.3904568929447468</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1509.293160203551</v>
+        <v>1509.293160212938</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1788466747362409</v>
+        <v>0.1788466747337534</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>593.6135900508123</v>
+        <v>593.6135900391138</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1155169284552126</v>
+        <v>0.1155169284634034</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2712.573808532441</v>
+        <v>-2712.573808546647</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00131713973317391</v>
+        <v>0.001317139733098794</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.32568720105449</v>
+        <v>25.32568719947863</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5213180281898001</v>
+        <v>0.521318028217137</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5282.844539004927</v>
+        <v>5282.844538904275</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002489021433996127</v>
+        <v>0.002489021434500543</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3310.40550940993</v>
+        <v>3310.405509499017</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1834447195409542</v>
+        <v>0.1834447195297502</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.677635623108929</v>
+        <v>167.763562286923</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7019898188156788</v>
+        <v>0.701989818856675</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.008653779677627125</v>
+        <v>8653.779677562718</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3502284000713271</v>
+        <v>0.3502284000777102</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-603.4378352460722</v>
+        <v>-603.4378352460651</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01209810814637296</v>
+        <v>0.01209810814637429</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-66090.47490376412</v>
+        <v>-660.9047490376543</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07293755408150775</v>
+        <v>0.07293755408150254</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-63112.7502516672</v>
+        <v>-631.1275025166501</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2328203326667614</v>
+        <v>0.2328203326667789</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55921.68417092872</v>
+        <v>55921.68416955101</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05533928940069813</v>
+        <v>0.05533928940646249</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4796.240835118333</v>
+        <v>-4796.240835135323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1258088254768752</v>
+        <v>0.1258088254768725</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-435.6077442633027</v>
+        <v>-435.6077443421666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8475096637962043</v>
+        <v>0.8475096637692585</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>493.4323339835444</v>
+        <v>493.4323341399233</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6466055459229296</v>
+        <v>0.6466055458125805</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>493.585554004173</v>
+        <v>493.5855539788757</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6594654923922099</v>
+        <v>0.6594654924086397</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2480.279853216615</v>
+        <v>-2480.279853238809</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04555948861033381</v>
+        <v>0.04555948860849598</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1192.061465329791</v>
+        <v>1192.061465285629</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2932978301329164</v>
+        <v>0.2932978301501791</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.7976146872621</v>
+        <v>161.7976147055842</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6709713170005034</v>
+        <v>0.6709713169645186</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3595.680018356776</v>
+        <v>-3595.680018371533</v>
       </c>
       <c r="C10" t="n">
-        <v>1.988247589182172e-05</v>
+        <v>1.988247589022418e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.875884239527128</v>
+        <v>3.875884238519783</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9210435323443136</v>
+        <v>0.9210435323649157</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3318.013727123373</v>
+        <v>3318.013727221001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05551790010654388</v>
+        <v>0.0555179000994092</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2390.82045748395</v>
+        <v>2390.820457455832</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3378566848165522</v>
+        <v>0.3378566848221647</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5954289118341232</v>
+        <v>59.54289121575155</v>
       </c>
       <c r="C14" t="n">
-        <v>0.893629389423608</v>
+        <v>0.8936293893661461</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007369204698140081</v>
+        <v>7369.20469792269</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4355230540327061</v>
+        <v>0.4355230540466682</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-423.4697633128545</v>
+        <v>-423.4697633128472</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07794585368965806</v>
+        <v>0.07794585368966236</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-58551.39946886298</v>
+        <v>-585.5139946886413</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1118015844605832</v>
+        <v>0.1118015844605754</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-38698.92885681865</v>
+        <v>-386.9892885681684</v>
       </c>
       <c r="C18" t="n">
-        <v>0.466908398510462</v>
+        <v>0.4669083985104814</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45271.88494091357</v>
+        <v>45271.88494185019</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1176162483951257</v>
+        <v>0.1176162483881573</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1915.062804686716</v>
+        <v>-1915.062804711338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.527883612170189</v>
+        <v>0.5278836121702076</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-202.6201809403622</v>
+        <v>-202.620180925697</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9317387633277696</v>
+        <v>0.9317387633326354</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>816.4000732156289</v>
+        <v>816.4000732288368</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4476903772474075</v>
+        <v>0.4476903772383836</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>441.7542534703364</v>
+        <v>441.754253392972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6985359560884989</v>
+        <v>0.6985359561392637</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2177.087638925222</v>
+        <v>-2177.087638937255</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0812778540591807</v>
+        <v>0.08127785405770328</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>493.2600620403744</v>
+        <v>493.2600620106361</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6684477164150635</v>
+        <v>0.6684477164330591</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>567.4703644340981</v>
+        <v>567.4703644411428</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1421071680808503</v>
+        <v>0.1421071680746412</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2197.865728068417</v>
+        <v>-2197.865728061015</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01037152280749215</v>
+        <v>0.01037152280776263</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.929375729413</v>
+        <v>3.929375728782897</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9208178680400123</v>
+        <v>0.9208178680528789</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4066.403481124313</v>
+        <v>4066.403481184602</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02009446901229639</v>
+        <v>0.02009446901042094</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1687.551814009733</v>
+        <v>1687.551813964977</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4947421154164694</v>
+        <v>0.4947421154276439</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.244211975376888</v>
+        <v>224.4211975480604</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6083644399507462</v>
+        <v>0.6083644399340113</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003836316854071685</v>
+        <v>3836.316854348095</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6775048186572969</v>
+        <v>0.6775048186357754</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-363.4168739693823</v>
+        <v>-363.4168739693741</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1268874710025832</v>
+        <v>0.1268874710025926</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-63238.69363718438</v>
+        <v>-632.3869363718621</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08649848738800486</v>
+        <v>0.08649848738799523</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-23464.81074193447</v>
+        <v>-234.6481074193171</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6561974795094554</v>
+        <v>0.6561974795094934</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70706.45210819697</v>
+        <v>70706.45210878301</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01295734770434589</v>
+        <v>0.01295734770374</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1189.191574928073</v>
+        <v>-1189.191574862259</v>
       </c>
       <c r="C3" t="n">
-        <v>0.715994051860124</v>
+        <v>0.7159940518600538</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1499.951785878266</v>
+        <v>-1499.951785912303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4840733745673621</v>
+        <v>0.4840733745592251</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.86376970662866</v>
+        <v>21.86376965159047</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9836536694060896</v>
+        <v>0.9836536694476026</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>310.6271006233337</v>
+        <v>310.6271006296679</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7777390409461862</v>
+        <v>0.7777390409417699</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1911.597362997494</v>
+        <v>-1911.59736296375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1270292659900492</v>
+        <v>0.12702926599613</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1966.512981439275</v>
+        <v>1966.512981466056</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07775079481391549</v>
+        <v>0.07775079481098254</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>267.6977553324112</v>
+        <v>267.6977553302867</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4696161034300229</v>
+        <v>0.4696161034341079</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3243.252862971125</v>
+        <v>-3243.252862976549</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001104686505726661</v>
+        <v>0.0001104686505689911</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.05568610711539</v>
+        <v>10.05568610723597</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7984447189168683</v>
+        <v>0.7984447189144196</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3575.731493181634</v>
+        <v>3575.731493104242</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03614276773209076</v>
+        <v>0.03614276773620019</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3650.546021186443</v>
+        <v>3650.546021218898</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1331133742891666</v>
+        <v>0.1331133742860016</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.135981033745576</v>
+        <v>-113.598103388775</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7903227296680135</v>
+        <v>0.7903227296425406</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01315197335985036</v>
+        <v>13151.97336037509</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1454581539018233</v>
+        <v>0.1454581538857793</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-575.6873975808788</v>
+        <v>-575.6873975808722</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01451578231371581</v>
+        <v>0.01451578231371697</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-52619.92428087198</v>
+        <v>-526.1992428087294</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1446624135318118</v>
+        <v>0.1446624135318036</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-65778.3147660867</v>
+        <v>-657.7831476608521</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2034199734512859</v>
+        <v>0.2034199734512965</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38083.83216394599</v>
+        <v>38083.83216388022</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1765164289917893</v>
+        <v>0.176516428992509</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2641.031320704994</v>
+        <v>-2641.031320765534</v>
       </c>
       <c r="C3" t="n">
-        <v>0.376305421357892</v>
+        <v>0.3763054213579335</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2069.97717837983</v>
+        <v>-2069.977178316004</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3651836141669003</v>
+        <v>0.3651836141801937</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-191.9510557739828</v>
+        <v>-191.9510558106247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8556056485400513</v>
+        <v>0.8556056485138726</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>743.434590673405</v>
+        <v>743.4345906231374</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5074278644772561</v>
+        <v>0.5074278645062188</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2316.214467561836</v>
+        <v>-2316.214467550115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06433350051101792</v>
+        <v>0.06433350051223811</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1131.541371542176</v>
+        <v>1131.541371514284</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3135798445272937</v>
+        <v>0.3135798445384209</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>266.2432205311051</v>
+        <v>266.2432205434885</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4724446738665901</v>
+        <v>0.4724446738441292</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3951.828861138397</v>
+        <v>-3951.828861131731</v>
       </c>
       <c r="C10" t="n">
-        <v>3.135838077773014e-06</v>
+        <v>3.135838077906436e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.18544034554014</v>
+        <v>10.18544034575778</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7935433976761144</v>
+        <v>0.7935433976716835</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4785.209212512303</v>
+        <v>4785.209212556706</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005004125485358974</v>
+        <v>0.00500412548495714</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7350147161881</v>
+        <v>789.7350146813119</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7425617819662365</v>
+        <v>0.742561781977142</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.336155240678756</v>
+        <v>333.6155240738121</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4326868319978746</v>
+        <v>0.4326868319896667</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002577801612584619</v>
+        <v>2577.801613311898</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7734898259588856</v>
+        <v>0.7734898258967577</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-306.5079809062652</v>
+        <v>-306.507980906251</v>
       </c>
       <c r="C16" t="n">
-        <v>0.187801853223971</v>
+        <v>0.1878018532239922</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-80302.36197327686</v>
+        <v>-803.0236197327886</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02571400737514257</v>
+        <v>0.02571400737513941</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6215.926067665332</v>
+        <v>-62.15926067662122</v>
       </c>
       <c r="C18" t="n">
-        <v>0.903628112353897</v>
+        <v>0.9036281123539468</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58354.83139423873</v>
+        <v>58354.83139429594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04317030258946535</v>
+        <v>0.04317030258952042</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-218.3464993512193</v>
+        <v>-218.3464993508564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9514342561980472</v>
+        <v>0.9514342561981182</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1311.989545580152</v>
+        <v>-1311.989545573896</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5607921972205225</v>
+        <v>0.5607921972207762</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-208.6493548125184</v>
+        <v>-208.6493548043707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8452530653658052</v>
+        <v>0.8452530653679582</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>929.5364618434488</v>
+        <v>929.5364618435533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4082814111382721</v>
+        <v>0.4082814111382089</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2090.52351218522</v>
+        <v>-2090.523512186407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09981973625775772</v>
+        <v>0.09981973625786202</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1726.84583843441</v>
+        <v>1726.845838433333</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1284497328257741</v>
+        <v>0.1284497328258376</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>564.9041344925231</v>
+        <v>564.9041344920026</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1385498310161001</v>
+        <v>0.1385498310172741</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3254.326553614183</v>
+        <v>-3254.326553614807</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001365295722282364</v>
+        <v>0.000136529572226496</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11.52884504641621</v>
+        <v>-11.52884504650037</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7738156197869233</v>
+        <v>0.7738156197865865</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2985.675914575285</v>
+        <v>2985.675914571849</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08323816673088355</v>
+        <v>0.08323816673115106</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2848.884860293112</v>
+        <v>2848.884860297095</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2483310765794959</v>
+        <v>0.2483310765791116</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.9314638663154887</v>
+        <v>-93.14638663237842</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8294448055224191</v>
+        <v>0.8294448055209803</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01066582329681216</v>
+        <v>10665.82329670183</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2429495702235456</v>
+        <v>0.2429495702286694</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-447.7321852552177</v>
+        <v>-447.7321852552105</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06008988893871017</v>
+        <v>0.06008988893871443</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-52604.83938640327</v>
+        <v>-526.0483938640444</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1526559902753027</v>
+        <v>0.1526559902752951</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-49277.14678440405</v>
+        <v>-492.7714678440206</v>
       </c>
       <c r="C18" t="n">
-        <v>0.347467674019491</v>
+        <v>0.3474676740195117</v>
       </c>
     </row>
   </sheetData>
